--- a/thesis/combined.xlsx
+++ b/thesis/combined.xlsx
@@ -47,16 +47,16 @@
     <t>PY Commits</t>
   </si>
   <si>
-    <t>PY Avg Volume / File</t>
+    <t>PY Avg Volume / KLOC</t>
   </si>
   <si>
-    <t>PY Avg Effort / File</t>
+    <t>PY Avg Effort / KLOC</t>
   </si>
   <si>
-    <t>PY Avg Difficulty / File</t>
+    <t>PY Avg Difficulty / KLOC</t>
   </si>
   <si>
-    <t>PY Avg Deliverd Bugs / File</t>
+    <t>PY Avg Deliverd Bugs / KLOC</t>
   </si>
   <si>
     <t>PY Avg LOC / File</t>
@@ -92,16 +92,16 @@
     <t>JS Commits</t>
   </si>
   <si>
-    <t>JS Avg Volume / File</t>
+    <t>JS Avg Volume / KLOC</t>
   </si>
   <si>
-    <t>Js Avg Effort / File</t>
+    <t>Js Avg Effort / KLOC</t>
   </si>
   <si>
-    <t>JS Avg Difficulty / File</t>
+    <t>JS Avg Difficulty / KLOC</t>
   </si>
   <si>
-    <t>JS Avg Delivered Bugs / File</t>
+    <t>JS Avg Delivered Bugs / KLOC</t>
   </si>
   <si>
     <t>JS Avg LOC / File</t>
@@ -140,16 +140,16 @@
     <t>Commits</t>
   </si>
   <si>
-    <t>Avg Volume / File</t>
+    <t>Avg Volume / KLOC</t>
   </si>
   <si>
-    <t>Avg Effort / File</t>
+    <t>Avg Effort / KLOC</t>
   </si>
   <si>
-    <t>Avg Difficulty / File</t>
+    <t>Avg Difficulty / KLOC</t>
   </si>
   <si>
-    <t>Avg Deliverd Bugs / File</t>
+    <t>Avg Deliverd Bugs / KLOC</t>
   </si>
   <si>
     <t>Avg LOC / File</t>
@@ -453,25 +453,25 @@
     <col customWidth="1" min="8" max="8" width="7.5"/>
     <col customWidth="1" min="9" max="9" width="9.88"/>
     <col customWidth="1" min="10" max="11" width="10.75"/>
-    <col customWidth="1" min="12" max="12" width="17.38"/>
-    <col customWidth="1" min="13" max="13" width="15.88"/>
-    <col customWidth="1" min="14" max="14" width="18.63"/>
-    <col customWidth="1" min="15" max="15" width="22.63"/>
+    <col customWidth="1" min="12" max="12" width="19.25"/>
+    <col customWidth="1" min="13" max="13" width="17.75"/>
+    <col customWidth="1" min="14" max="14" width="20.38"/>
+    <col customWidth="1" min="15" max="15" width="24.5"/>
     <col customWidth="1" min="16" max="16" width="15.0"/>
     <col customWidth="1" min="17" max="17" width="21.75"/>
     <col customWidth="1" min="18" max="18" width="15.63"/>
     <col customWidth="1" min="19" max="19" width="15.38"/>
-    <col customWidth="1" min="20" max="20" width="7.88"/>
-    <col customWidth="1" min="21" max="21" width="9.38"/>
-    <col customWidth="1" min="22" max="22" width="10.75"/>
+    <col customWidth="1" min="20" max="20" width="10.75"/>
+    <col customWidth="1" min="21" max="21" width="9.75"/>
+    <col customWidth="1" min="22" max="22" width="10.63"/>
     <col customWidth="1" min="23" max="23" width="7.0"/>
     <col customWidth="1" min="24" max="24" width="7.25"/>
     <col customWidth="1" min="25" max="25" width="10.5"/>
     <col customWidth="1" min="26" max="26" width="10.63"/>
-    <col customWidth="1" min="27" max="27" width="17.13"/>
-    <col customWidth="1" min="28" max="28" width="15.5"/>
-    <col customWidth="1" min="29" max="29" width="18.38"/>
-    <col customWidth="1" min="30" max="30" width="23.38"/>
+    <col customWidth="1" min="27" max="27" width="19.0"/>
+    <col customWidth="1" min="28" max="28" width="17.38"/>
+    <col customWidth="1" min="29" max="29" width="20.25"/>
+    <col customWidth="1" min="30" max="30" width="25.25"/>
     <col customWidth="1" min="31" max="31" width="14.75"/>
     <col customWidth="1" min="32" max="32" width="21.63"/>
   </cols>
@@ -581,19 +581,19 @@
         <v>42736.0</v>
       </c>
       <c r="B2" s="4">
-        <v>357.04</v>
+        <v>201.37</v>
       </c>
       <c r="C2" s="4">
         <v>5.0</v>
       </c>
       <c r="D2" s="4">
-        <v>6.850183616E7</v>
+        <v>8.274176088E7</v>
       </c>
       <c r="E2" s="4">
-        <v>1071115.59</v>
+        <v>604098.21</v>
       </c>
       <c r="F2" s="4">
-        <v>691.72</v>
+        <v>1397.38</v>
       </c>
       <c r="G2" s="4">
         <v>17612.0</v>
@@ -611,16 +611,16 @@
         <v>136.0</v>
       </c>
       <c r="L2" s="4">
-        <v>29753.21083</v>
+        <v>952.7882031</v>
       </c>
       <c r="M2" s="4">
-        <v>1902828.782</v>
+        <v>130500.9225</v>
       </c>
       <c r="N2" s="4">
-        <v>19.21444444</v>
+        <v>2.20395816</v>
       </c>
       <c r="O2" s="4">
-        <v>9.917777778</v>
+        <v>0.3176022661</v>
       </c>
       <c r="P2" s="4">
         <v>489.2222222</v>
@@ -629,25 +629,25 @@
         <v>418.6617647</v>
       </c>
       <c r="R2" s="4">
-        <v>1010.6</v>
+        <v>850.93</v>
       </c>
       <c r="S2" s="4">
         <v>128.0</v>
       </c>
       <c r="T2" s="4">
-        <v>1.002710067E8</v>
+        <v>1.791426862E8</v>
       </c>
       <c r="U2" s="4">
-        <v>3031555.09</v>
+        <v>2553005.3</v>
       </c>
       <c r="V2" s="4">
-        <v>6272.3</v>
+        <v>13941.85</v>
       </c>
       <c r="W2" s="4">
-        <v>56830.0</v>
+        <v>63798.0</v>
       </c>
       <c r="X2" s="4">
-        <v>373.0</v>
+        <v>467.0</v>
       </c>
       <c r="Y2" s="4">
         <v>662956.0</v>
@@ -656,19 +656,19 @@
         <v>585.0</v>
       </c>
       <c r="AA2" s="4">
-        <v>8127.493539</v>
+        <v>85.68953213</v>
       </c>
       <c r="AB2" s="4">
-        <v>268823.0741</v>
+        <v>6012.777553</v>
       </c>
       <c r="AC2" s="4">
-        <v>16.81581769</v>
+        <v>0.4679467777</v>
       </c>
       <c r="AD2" s="4">
-        <v>2.709383378</v>
+        <v>0.02856076859</v>
       </c>
       <c r="AE2" s="4">
-        <v>152.3592493</v>
+        <v>136.6124197</v>
       </c>
       <c r="AF2" s="4">
         <v>1133.25812</v>
@@ -679,19 +679,19 @@
         <v>42826.0</v>
       </c>
       <c r="B3" s="4">
-        <v>365.42</v>
+        <v>190.55</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
       </c>
       <c r="D3" s="4">
-        <v>4.059657053E7</v>
+        <v>4.438313062E7</v>
       </c>
       <c r="E3" s="4">
-        <v>1096243.02</v>
+        <v>571684.53</v>
       </c>
       <c r="F3" s="4">
-        <v>1322.57</v>
+        <v>2642.29</v>
       </c>
       <c r="G3" s="4">
         <v>20442.0</v>
@@ -709,16 +709,16 @@
         <v>152.0</v>
       </c>
       <c r="L3" s="4">
-        <v>15440.04254</v>
+        <v>393.8897754</v>
       </c>
       <c r="M3" s="4">
-        <v>571782.6835</v>
+        <v>30579.90978</v>
       </c>
       <c r="N3" s="4">
-        <v>18.62774648</v>
+        <v>1.820533808</v>
       </c>
       <c r="O3" s="4">
-        <v>5.146760563</v>
+        <v>0.1312886614</v>
       </c>
       <c r="P3" s="4">
         <v>287.915493</v>
@@ -727,25 +727,25 @@
         <v>383.5065789</v>
       </c>
       <c r="R3" s="4">
-        <v>1088.36</v>
+        <v>912.32</v>
       </c>
       <c r="S3" s="4">
         <v>114.0</v>
       </c>
       <c r="T3" s="4">
-        <v>1.085066209E8</v>
+        <v>1.929318924E8</v>
       </c>
       <c r="U3" s="4">
-        <v>3264681.57</v>
+        <v>2737417.67</v>
       </c>
       <c r="V3" s="4">
-        <v>6733.01</v>
+        <v>14906.17</v>
       </c>
       <c r="W3" s="4">
-        <v>61145.0</v>
+        <v>68368.0</v>
       </c>
       <c r="X3" s="4">
-        <v>397.0</v>
+        <v>498.0</v>
       </c>
       <c r="Y3" s="4">
         <v>1560757.0</v>
@@ -754,19 +754,19 @@
         <v>769.0</v>
       </c>
       <c r="AA3" s="4">
-        <v>8223.37927</v>
+        <v>80.40051823</v>
       </c>
       <c r="AB3" s="4">
-        <v>273316.4254</v>
+        <v>5666.590197</v>
       </c>
       <c r="AC3" s="4">
-        <v>16.95972292</v>
+        <v>0.4378081599</v>
       </c>
       <c r="AD3" s="4">
-        <v>2.741460957</v>
+        <v>0.02679569201</v>
       </c>
       <c r="AE3" s="4">
-        <v>154.0176322</v>
+        <v>137.2851406</v>
       </c>
       <c r="AF3" s="4">
         <v>2029.592978</v>
@@ -777,19 +777,19 @@
         <v>42917.0</v>
       </c>
       <c r="B4" s="4">
-        <v>388.53</v>
+        <v>206.55</v>
       </c>
       <c r="C4" s="4">
         <v>2.0</v>
       </c>
       <c r="D4" s="4">
-        <v>4.393733387E7</v>
+        <v>5.032983618E7</v>
       </c>
       <c r="E4" s="4">
-        <v>1165660.67</v>
+        <v>619700.1</v>
       </c>
       <c r="F4" s="4">
-        <v>1380.51</v>
+        <v>2789.79</v>
       </c>
       <c r="G4" s="4">
         <v>21815.0</v>
@@ -807,16 +807,16 @@
         <v>44.0</v>
       </c>
       <c r="L4" s="4">
-        <v>15967.95438</v>
+        <v>389.1378623</v>
       </c>
       <c r="M4" s="4">
-        <v>601881.2859</v>
+        <v>31604.39196</v>
       </c>
       <c r="N4" s="4">
-        <v>18.91109589</v>
+        <v>1.751835956</v>
       </c>
       <c r="O4" s="4">
-        <v>5.322328767</v>
+        <v>0.1297021341</v>
       </c>
       <c r="P4" s="4">
         <v>298.8356164</v>
@@ -825,25 +825,25 @@
         <v>469.7727273</v>
       </c>
       <c r="R4" s="4">
-        <v>1270.97</v>
+        <v>1083.55</v>
       </c>
       <c r="S4" s="4">
         <v>89.0</v>
       </c>
       <c r="T4" s="4">
-        <v>1.239679069E8</v>
+        <v>2.305955426E8</v>
       </c>
       <c r="U4" s="4">
-        <v>3812693.53</v>
+        <v>3251216.83</v>
       </c>
       <c r="V4" s="4">
-        <v>8198.44</v>
+        <v>17905.52</v>
       </c>
       <c r="W4" s="4">
-        <v>71162.0</v>
+        <v>78838.0</v>
       </c>
       <c r="X4" s="4">
-        <v>483.0</v>
+        <v>591.0</v>
       </c>
       <c r="Y4" s="4">
         <v>198206.0</v>
@@ -852,19 +852,19 @@
         <v>424.0</v>
       </c>
       <c r="AA4" s="4">
-        <v>7893.775424</v>
+        <v>69.77869695</v>
       </c>
       <c r="AB4" s="4">
-        <v>256662.3332</v>
+        <v>4949.11823</v>
       </c>
       <c r="AC4" s="4">
-        <v>16.97399586</v>
+        <v>0.3842942256</v>
       </c>
       <c r="AD4" s="4">
-        <v>2.631407867</v>
+        <v>0.02325551049</v>
       </c>
       <c r="AE4" s="4">
-        <v>147.3333333</v>
+        <v>133.3976311</v>
       </c>
       <c r="AF4" s="4">
         <v>467.4669811</v>
@@ -875,19 +875,19 @@
         <v>43009.0</v>
       </c>
       <c r="B5" s="4">
-        <v>406.29</v>
+        <v>221.46</v>
       </c>
       <c r="C5" s="4">
         <v>4.0</v>
       </c>
       <c r="D5" s="4">
-        <v>4.635006783E7</v>
+        <v>5.434904302E7</v>
       </c>
       <c r="E5" s="4">
-        <v>1218953.17</v>
+        <v>664426.52</v>
       </c>
       <c r="F5" s="4">
-        <v>1430.16</v>
+        <v>2895.2</v>
       </c>
       <c r="G5" s="4">
         <v>22948.0</v>
@@ -905,16 +905,16 @@
         <v>109.0</v>
       </c>
       <c r="L5" s="4">
-        <v>16038.8575</v>
+        <v>380.9680238</v>
       </c>
       <c r="M5" s="4">
-        <v>609869.3136</v>
+        <v>31162.58441</v>
       </c>
       <c r="N5" s="4">
-        <v>18.81789474</v>
+        <v>1.660046054</v>
       </c>
       <c r="O5" s="4">
-        <v>5.345921053</v>
+        <v>0.1269804501</v>
       </c>
       <c r="P5" s="4">
         <v>301.9473684</v>
@@ -923,25 +923,25 @@
         <v>342.6146789</v>
       </c>
       <c r="R5" s="4">
-        <v>1341.08</v>
+        <v>1096.54</v>
       </c>
       <c r="S5" s="4">
         <v>61.0</v>
       </c>
       <c r="T5" s="4">
-        <v>1.314854552E8</v>
+        <v>2.234695748E8</v>
       </c>
       <c r="U5" s="4">
-        <v>4023231.56</v>
+        <v>3290211.38</v>
       </c>
       <c r="V5" s="4">
-        <v>8397.53</v>
+        <v>18309.69</v>
       </c>
       <c r="W5" s="4">
-        <v>74948.0</v>
+        <v>83314.0</v>
       </c>
       <c r="X5" s="4">
-        <v>484.0</v>
+        <v>600.0</v>
       </c>
       <c r="Y5" s="4">
         <v>332861.0</v>
@@ -950,19 +950,19 @@
         <v>528.0</v>
       </c>
       <c r="AA5" s="4">
-        <v>8312.461901</v>
+        <v>65.81949772</v>
       </c>
       <c r="AB5" s="4">
-        <v>271664.1636</v>
+        <v>4470.428636</v>
       </c>
       <c r="AC5" s="4">
-        <v>17.3502686</v>
+        <v>0.3662787767</v>
       </c>
       <c r="AD5" s="4">
-        <v>2.770826446</v>
+        <v>0.02193588913</v>
       </c>
       <c r="AE5" s="4">
-        <v>154.8512397</v>
+        <v>138.8566667</v>
       </c>
       <c r="AF5" s="4">
         <v>630.4185606</v>
@@ -973,19 +973,19 @@
         <v>43101.0</v>
       </c>
       <c r="B6" s="4">
-        <v>422.13</v>
+        <v>230.35</v>
       </c>
       <c r="C6" s="4">
         <v>0.0</v>
       </c>
       <c r="D6" s="4">
-        <v>4.830743464E7</v>
+        <v>5.74927668E7</v>
       </c>
       <c r="E6" s="4">
-        <v>1266444.66</v>
+        <v>691196.29</v>
       </c>
       <c r="F6" s="4">
-        <v>1465.38</v>
+        <v>2985.27</v>
       </c>
       <c r="G6" s="4">
         <v>23722.0</v>
@@ -1003,16 +1003,16 @@
         <v>166.0</v>
       </c>
       <c r="L6" s="4">
-        <v>16447.33325</v>
+        <v>378.407183</v>
       </c>
       <c r="M6" s="4">
-        <v>627369.281</v>
+        <v>31475.39453</v>
       </c>
       <c r="N6" s="4">
-        <v>19.03090909</v>
+        <v>1.634336913</v>
       </c>
       <c r="O6" s="4">
-        <v>5.482207792</v>
+        <v>0.1261090313</v>
       </c>
       <c r="P6" s="4">
         <v>308.0779221</v>
@@ -1021,25 +1021,25 @@
         <v>3754.222892</v>
       </c>
       <c r="R6" s="4">
-        <v>1436.84</v>
+        <v>1227.6</v>
       </c>
       <c r="S6" s="4">
         <v>133.0</v>
       </c>
       <c r="T6" s="4">
-        <v>1.403683357E8</v>
+        <v>2.52695445E8</v>
       </c>
       <c r="U6" s="4">
-        <v>4310427.84</v>
+        <v>3683400.3</v>
       </c>
       <c r="V6" s="4">
-        <v>9009.72</v>
+        <v>20348.26</v>
       </c>
       <c r="W6" s="4">
-        <v>80133.0</v>
+        <v>91368.0</v>
       </c>
       <c r="X6" s="4">
-        <v>522.0</v>
+        <v>716.0</v>
       </c>
       <c r="Y6" s="4">
         <v>4143943.0</v>
@@ -1048,19 +1048,19 @@
         <v>767.0</v>
       </c>
       <c r="AA6" s="4">
-        <v>8257.524598</v>
+        <v>56.30432785</v>
       </c>
       <c r="AB6" s="4">
-        <v>268904.8576</v>
+        <v>3862.693714</v>
       </c>
       <c r="AC6" s="4">
-        <v>17.26</v>
+        <v>0.311042789</v>
       </c>
       <c r="AD6" s="4">
-        <v>2.75256705</v>
+        <v>0.01876505056</v>
       </c>
       <c r="AE6" s="4">
-        <v>153.5114943</v>
+        <v>127.6089385</v>
       </c>
       <c r="AF6" s="4">
         <v>5402.794003</v>
@@ -1071,19 +1071,19 @@
         <v>43191.0</v>
       </c>
       <c r="B7" s="4">
-        <v>495.87</v>
+        <v>273.02</v>
       </c>
       <c r="C7" s="4">
         <v>3.0</v>
       </c>
       <c r="D7" s="4">
-        <v>6.013885318E7</v>
+        <v>7.170500125E7</v>
       </c>
       <c r="E7" s="4">
-        <v>1487584.93</v>
+        <v>819154.69</v>
       </c>
       <c r="F7" s="4">
-        <v>1592.0</v>
+        <v>3290.79</v>
       </c>
       <c r="G7" s="4">
         <v>28280.0</v>
@@ -1101,16 +1101,16 @@
         <v>249.0</v>
       </c>
       <c r="L7" s="4">
-        <v>17922.71</v>
+        <v>348.9863371</v>
       </c>
       <c r="M7" s="4">
-        <v>724564.4961</v>
+        <v>30548.6449</v>
       </c>
       <c r="N7" s="4">
-        <v>19.18072289</v>
+        <v>1.401982754</v>
       </c>
       <c r="O7" s="4">
-        <v>5.974337349</v>
+        <v>0.116315332</v>
       </c>
       <c r="P7" s="4">
         <v>340.7228916</v>
@@ -1119,25 +1119,25 @@
         <v>2426.634538</v>
       </c>
       <c r="R7" s="4">
-        <v>1546.89</v>
+        <v>1327.83</v>
       </c>
       <c r="S7" s="4">
         <v>106.0</v>
       </c>
       <c r="T7" s="4">
-        <v>1.531339219E8</v>
+        <v>2.817888963E8</v>
       </c>
       <c r="U7" s="4">
-        <v>4640509.14</v>
+        <v>3983489.92</v>
       </c>
       <c r="V7" s="4">
-        <v>9371.83</v>
+        <v>21264.13</v>
       </c>
       <c r="W7" s="4">
-        <v>85392.0</v>
+        <v>97081.0</v>
       </c>
       <c r="X7" s="4">
-        <v>537.0</v>
+        <v>734.0</v>
       </c>
       <c r="Y7" s="4">
         <v>4647553.0</v>
@@ -1146,19 +1146,19 @@
         <v>661.0</v>
       </c>
       <c r="AA7" s="4">
-        <v>8641.544022</v>
+        <v>55.90278204</v>
       </c>
       <c r="AB7" s="4">
-        <v>285165.5901</v>
+        <v>3954.518165</v>
       </c>
       <c r="AC7" s="4">
-        <v>17.45219739</v>
+        <v>0.2984127106</v>
       </c>
       <c r="AD7" s="4">
-        <v>2.880614525</v>
+        <v>0.01863426106</v>
       </c>
       <c r="AE7" s="4">
-        <v>159.0167598</v>
+        <v>132.2629428</v>
       </c>
       <c r="AF7" s="4">
         <v>7031.093797</v>
@@ -1169,19 +1169,19 @@
         <v>43282.0</v>
       </c>
       <c r="B8" s="4">
-        <v>5458.58</v>
+        <v>1433.13</v>
       </c>
       <c r="C8" s="4">
         <v>26.0</v>
       </c>
       <c r="D8" s="4">
-        <v>9.481113542E8</v>
+        <v>3.235209765E8</v>
       </c>
       <c r="E8" s="4">
-        <v>1.637627822E7</v>
+        <v>4299406.56</v>
       </c>
       <c r="F8" s="4">
-        <v>16714.2</v>
+        <v>31892.09</v>
       </c>
       <c r="G8" s="4">
         <v>306465.0</v>
@@ -1199,16 +1199,16 @@
         <v>94.0</v>
       </c>
       <c r="L8" s="4">
-        <v>19683.02671</v>
+        <v>16.86181444</v>
       </c>
       <c r="M8" s="4">
-        <v>1139556.916</v>
+        <v>1268.8148</v>
       </c>
       <c r="N8" s="4">
-        <v>20.08918269</v>
+        <v>0.125077379</v>
       </c>
       <c r="O8" s="4">
-        <v>6.560793269</v>
+        <v>0.005620583164</v>
       </c>
       <c r="P8" s="4">
         <v>368.3473558</v>
@@ -1217,25 +1217,25 @@
         <v>9709.159574</v>
       </c>
       <c r="R8" s="4">
-        <v>1626.89</v>
+        <v>1370.86</v>
       </c>
       <c r="S8" s="4">
         <v>155.0</v>
       </c>
       <c r="T8" s="4">
-        <v>1.614789601E8</v>
+        <v>2.876406827E8</v>
       </c>
       <c r="U8" s="4">
-        <v>4880839.39</v>
+        <v>4112837.76</v>
       </c>
       <c r="V8" s="4">
-        <v>9564.86</v>
+        <v>21670.28</v>
       </c>
       <c r="W8" s="4">
-        <v>89169.0</v>
+        <v>101296.0</v>
       </c>
       <c r="X8" s="4">
-        <v>544.0</v>
+        <v>745.0</v>
       </c>
       <c r="Y8" s="4">
         <v>3185538.0</v>
@@ -1244,19 +1244,19 @@
         <v>710.0</v>
       </c>
       <c r="AA8" s="4">
-        <v>8972.131232</v>
+        <v>54.49956165</v>
       </c>
       <c r="AB8" s="4">
-        <v>296836.3238</v>
+        <v>3811.551059</v>
       </c>
       <c r="AC8" s="4">
-        <v>17.58246324</v>
+        <v>0.2871547165</v>
       </c>
       <c r="AD8" s="4">
-        <v>2.990606618</v>
+        <v>0.01816538202</v>
       </c>
       <c r="AE8" s="4">
-        <v>163.9136029</v>
+        <v>135.9677852</v>
       </c>
       <c r="AF8" s="4">
         <v>4486.673239</v>
@@ -1267,19 +1267,19 @@
         <v>43374.0</v>
       </c>
       <c r="B9" s="4">
-        <v>5964.88</v>
+        <v>1811.46</v>
       </c>
       <c r="C9" s="4">
         <v>14.0</v>
       </c>
       <c r="D9" s="4">
-        <v>1.049630651E9</v>
+        <v>3.660247184E8</v>
       </c>
       <c r="E9" s="4">
-        <v>1.789467248E7</v>
+        <v>5434433.7</v>
       </c>
       <c r="F9" s="4">
-        <v>18088.51</v>
+        <v>32433.3</v>
       </c>
       <c r="G9" s="4">
         <v>338793.0</v>
@@ -1297,16 +1297,16 @@
         <v>39.0</v>
       </c>
       <c r="L9" s="4">
-        <v>20357.98917</v>
+        <v>18.24866048</v>
       </c>
       <c r="M9" s="4">
-        <v>1194119.057</v>
+        <v>1229.099697</v>
       </c>
       <c r="N9" s="4">
-        <v>20.57850967</v>
+        <v>0.1089100194</v>
       </c>
       <c r="O9" s="4">
-        <v>6.785984073</v>
+        <v>0.006082826719</v>
       </c>
       <c r="P9" s="4">
         <v>385.4300341</v>
@@ -1315,25 +1315,25 @@
         <v>25243.48718</v>
       </c>
       <c r="R9" s="4">
-        <v>1697.57</v>
+        <v>1440.86</v>
       </c>
       <c r="S9" s="4">
         <v>149.0</v>
       </c>
       <c r="T9" s="4">
-        <v>1.686632483E8</v>
+        <v>3.059143788E8</v>
       </c>
       <c r="U9" s="4">
-        <v>5092929.89</v>
+        <v>4322887.2</v>
       </c>
       <c r="V9" s="4">
-        <v>9883.74</v>
+        <v>22461.1</v>
       </c>
       <c r="W9" s="4">
-        <v>92888.0</v>
+        <v>105874.0</v>
       </c>
       <c r="X9" s="4">
-        <v>557.0</v>
+        <v>765.0</v>
       </c>
       <c r="Y9" s="4">
         <v>5887605.0</v>
@@ -1342,19 +1342,19 @@
         <v>1119.0</v>
       </c>
       <c r="AA9" s="4">
-        <v>9143.5007</v>
+        <v>53.37318833</v>
       </c>
       <c r="AB9" s="4">
-        <v>302806.55</v>
+        <v>3777.018691</v>
       </c>
       <c r="AC9" s="4">
-        <v>17.74459605</v>
+        <v>0.2773194083</v>
       </c>
       <c r="AD9" s="4">
-        <v>3.047701975</v>
+        <v>0.01778979848</v>
       </c>
       <c r="AE9" s="4">
-        <v>166.7648115</v>
+        <v>138.3973856</v>
       </c>
       <c r="AF9" s="4">
         <v>5261.487936</v>
@@ -1365,19 +1365,19 @@
         <v>43466.0</v>
       </c>
       <c r="B10" s="4">
-        <v>6575.3</v>
+        <v>1976.09</v>
       </c>
       <c r="C10" s="4">
         <v>19.0</v>
       </c>
       <c r="D10" s="4">
-        <v>1.21057956E9</v>
+        <v>4.019090935E8</v>
       </c>
       <c r="E10" s="4">
-        <v>1.972630586E7</v>
+        <v>5927913.29</v>
       </c>
       <c r="F10" s="4">
-        <v>19902.72</v>
+        <v>35197.01</v>
       </c>
       <c r="G10" s="4">
         <v>370821.0</v>
@@ -1395,16 +1395,16 @@
         <v>31.0</v>
       </c>
       <c r="L10" s="4">
-        <v>19245.17645</v>
+        <v>15.59601543</v>
       </c>
       <c r="M10" s="4">
-        <v>1181053.229</v>
+        <v>1057.400829</v>
       </c>
       <c r="N10" s="4">
-        <v>19.4172878</v>
+        <v>0.09260140699</v>
       </c>
       <c r="O10" s="4">
-        <v>6.414926829</v>
+        <v>0.005198984639</v>
       </c>
       <c r="P10" s="4">
         <v>361.7765854</v>
@@ -1413,25 +1413,25 @@
         <v>8259.129032</v>
       </c>
       <c r="R10" s="4">
-        <v>1830.76</v>
+        <v>1553.14</v>
       </c>
       <c r="S10" s="4">
         <v>163.0</v>
       </c>
       <c r="T10" s="4">
-        <v>1.889998475E8</v>
+        <v>3.367043352E8</v>
       </c>
       <c r="U10" s="4">
-        <v>5492132.54</v>
+        <v>4659394.92</v>
       </c>
       <c r="V10" s="4">
-        <v>10198.66</v>
+        <v>23127.75</v>
       </c>
       <c r="W10" s="4">
-        <v>99389.0</v>
+        <v>112897.0</v>
       </c>
       <c r="X10" s="4">
-        <v>565.0</v>
+        <v>774.0</v>
       </c>
       <c r="Y10" s="4">
         <v>3079503.0</v>
@@ -1440,19 +1440,19 @@
         <v>949.0</v>
       </c>
       <c r="AA10" s="4">
-        <v>9720.588566</v>
+        <v>53.32196673</v>
       </c>
       <c r="AB10" s="4">
-        <v>334513.0044</v>
+        <v>3853.233664</v>
       </c>
       <c r="AC10" s="4">
-        <v>18.05072566</v>
+        <v>0.2646732327</v>
       </c>
       <c r="AD10" s="4">
-        <v>3.240283186</v>
+        <v>0.01777408458</v>
       </c>
       <c r="AE10" s="4">
-        <v>175.9097345</v>
+        <v>145.8617571</v>
       </c>
       <c r="AF10" s="4">
         <v>3244.997893</v>
@@ -1463,19 +1463,19 @@
         <v>43556.0</v>
       </c>
       <c r="B11" s="4">
-        <v>6996.04</v>
+        <v>2104.74</v>
       </c>
       <c r="C11" s="4">
         <v>13.0</v>
       </c>
       <c r="D11" s="4">
-        <v>1.353278738E9</v>
+        <v>4.36748468E8</v>
       </c>
       <c r="E11" s="4">
-        <v>2.098847947E7</v>
+        <v>6314233.71</v>
       </c>
       <c r="F11" s="4">
-        <v>20934.38</v>
+        <v>36833.57</v>
       </c>
       <c r="G11" s="4">
         <v>392094.0</v>
@@ -1493,16 +1493,16 @@
         <v>104.0</v>
       </c>
       <c r="L11" s="4">
-        <v>19781.79026</v>
+        <v>15.1780183</v>
       </c>
       <c r="M11" s="4">
-        <v>1275474.777</v>
+        <v>1049.846512</v>
       </c>
       <c r="N11" s="4">
-        <v>19.73080113</v>
+        <v>0.08853973816</v>
       </c>
       <c r="O11" s="4">
-        <v>6.593817154</v>
+        <v>0.005059328447</v>
       </c>
       <c r="P11" s="4">
         <v>369.5513666</v>
@@ -1511,25 +1511,25 @@
         <v>11135.79808</v>
       </c>
       <c r="R11" s="4">
-        <v>1940.3</v>
+        <v>1650.65</v>
       </c>
       <c r="S11" s="4">
         <v>143.0</v>
       </c>
       <c r="T11" s="4">
-        <v>2.041920473E8</v>
+        <v>3.696120063E8</v>
       </c>
       <c r="U11" s="4">
-        <v>5820603.11</v>
+        <v>4951810.37</v>
       </c>
       <c r="V11" s="4">
-        <v>10678.79</v>
+        <v>24134.44</v>
       </c>
       <c r="W11" s="4">
-        <v>105291.0</v>
+        <v>118872.0</v>
       </c>
       <c r="X11" s="4">
-        <v>589.0</v>
+        <v>800.0</v>
       </c>
       <c r="Y11" s="4">
         <v>539967.0</v>
@@ -1538,19 +1538,19 @@
         <v>730.0</v>
       </c>
       <c r="AA11" s="4">
-        <v>9882.178455</v>
+        <v>52.07082376</v>
       </c>
       <c r="AB11" s="4">
-        <v>346675.8019</v>
+        <v>3886.659666</v>
       </c>
       <c r="AC11" s="4">
-        <v>18.13037351</v>
+        <v>0.2537860051</v>
       </c>
       <c r="AD11" s="4">
-        <v>3.294227504</v>
+        <v>0.01735743068</v>
       </c>
       <c r="AE11" s="4">
-        <v>178.762309</v>
+        <v>148.59</v>
       </c>
       <c r="AF11" s="4">
         <v>739.6808219</v>
@@ -1561,19 +1561,19 @@
         <v>43647.0</v>
       </c>
       <c r="B12" s="4">
-        <v>8920.75</v>
+        <v>2791.93</v>
       </c>
       <c r="C12" s="4">
         <v>11.0</v>
       </c>
       <c r="D12" s="4">
-        <v>7.364860311E9</v>
+        <v>1.48238417E9</v>
       </c>
       <c r="E12" s="4">
-        <v>2.676197709E7</v>
+        <v>8376297.41</v>
       </c>
       <c r="F12" s="4">
-        <v>14800.29</v>
+        <v>22987.27</v>
       </c>
       <c r="G12" s="4">
         <v>453912.0</v>
@@ -1591,16 +1591,16 @@
         <v>63.0</v>
       </c>
       <c r="L12" s="4">
-        <v>61240.22217</v>
+        <v>42.22785171</v>
       </c>
       <c r="M12" s="4">
-        <v>1.685322726E7</v>
+        <v>7473.218278</v>
       </c>
       <c r="N12" s="4">
-        <v>33.8679405</v>
+        <v>0.1158868867</v>
       </c>
       <c r="O12" s="4">
-        <v>20.41361556</v>
+        <v>0.01407509789</v>
       </c>
       <c r="P12" s="4">
         <v>1038.700229</v>
@@ -1609,25 +1609,25 @@
         <v>22187.4127</v>
       </c>
       <c r="R12" s="4">
-        <v>1994.56</v>
+        <v>1696.35</v>
       </c>
       <c r="S12" s="4">
         <v>96.0</v>
       </c>
       <c r="T12" s="4">
-        <v>2.079206204E8</v>
+        <v>3.736008126E8</v>
       </c>
       <c r="U12" s="4">
-        <v>5983293.27</v>
+        <v>5088771.53</v>
       </c>
       <c r="V12" s="4">
-        <v>11268.72</v>
+        <v>25193.37</v>
       </c>
       <c r="W12" s="4">
-        <v>108346.0</v>
+        <v>122058.0</v>
       </c>
       <c r="X12" s="4">
-        <v>629.0</v>
+        <v>843.0</v>
       </c>
       <c r="Y12" s="4">
         <v>579919.0</v>
@@ -1636,19 +1636,19 @@
         <v>486.0</v>
       </c>
       <c r="AA12" s="4">
-        <v>9512.389936</v>
+        <v>49.45601606</v>
       </c>
       <c r="AB12" s="4">
-        <v>330557.4251</v>
+        <v>3630.897493</v>
       </c>
       <c r="AC12" s="4">
-        <v>17.91529412</v>
+        <v>0.2448456772</v>
       </c>
       <c r="AD12" s="4">
-        <v>3.17100159</v>
+        <v>0.0164862408</v>
       </c>
       <c r="AE12" s="4">
-        <v>172.2511924</v>
+        <v>144.7900356</v>
       </c>
       <c r="AF12" s="4">
         <v>1193.248971</v>
@@ -1659,19 +1659,19 @@
         <v>43739.0</v>
       </c>
       <c r="B13" s="4">
-        <v>9366.8</v>
+        <v>2924.92</v>
       </c>
       <c r="C13" s="4">
         <v>9.0</v>
       </c>
       <c r="D13" s="4">
-        <v>7.89410327E9</v>
+        <v>1.571297033E9</v>
       </c>
       <c r="E13" s="4">
-        <v>2.810017192E7</v>
+        <v>8775379.96</v>
       </c>
       <c r="F13" s="4">
-        <v>15451.13</v>
+        <v>24142.21</v>
       </c>
       <c r="G13" s="4">
         <v>475670.0</v>
@@ -1689,16 +1689,16 @@
         <v>219.0</v>
       </c>
       <c r="L13" s="4">
-        <v>61354.08716</v>
+        <v>40.2804849</v>
       </c>
       <c r="M13" s="4">
-        <v>1.723603334E7</v>
+        <v>7212.520335</v>
       </c>
       <c r="N13" s="4">
-        <v>33.7360917</v>
+        <v>0.1108168455</v>
       </c>
       <c r="O13" s="4">
-        <v>20.45152838</v>
+        <v>0.01342587973</v>
       </c>
       <c r="P13" s="4">
         <v>1038.580786</v>
@@ -1707,25 +1707,25 @@
         <v>989.9497717</v>
       </c>
       <c r="R13" s="4">
-        <v>2132.55</v>
+        <v>1776.76</v>
       </c>
       <c r="S13" s="4">
         <v>91.0</v>
       </c>
       <c r="T13" s="4">
-        <v>2.233105955E8</v>
+        <v>3.876466443E8</v>
       </c>
       <c r="U13" s="4">
-        <v>6397183.45</v>
+        <v>5330279.04</v>
       </c>
       <c r="V13" s="4">
-        <v>11923.36</v>
+        <v>26268.01</v>
       </c>
       <c r="W13" s="4">
-        <v>114791.0</v>
+        <v>128633.0</v>
       </c>
       <c r="X13" s="4">
-        <v>665.0</v>
+        <v>881.0</v>
       </c>
       <c r="Y13" s="4">
         <v>927249.0</v>
@@ -1734,19 +1734,19 @@
         <v>420.0</v>
       </c>
       <c r="AA13" s="4">
-        <v>9619.824737</v>
+        <v>47.03505304</v>
       </c>
       <c r="AB13" s="4">
-        <v>335805.4068</v>
+        <v>3420.642772</v>
       </c>
       <c r="AC13" s="4">
-        <v>17.92986466</v>
+        <v>0.2317922259</v>
       </c>
       <c r="AD13" s="4">
-        <v>3.206842105</v>
+        <v>0.01567835384</v>
       </c>
       <c r="AE13" s="4">
-        <v>172.6180451</v>
+        <v>146.0079455</v>
       </c>
       <c r="AF13" s="4">
         <v>2207.735714</v>
@@ -1757,19 +1757,19 @@
         <v>43831.0</v>
       </c>
       <c r="B14" s="4">
-        <v>9898.19</v>
+        <v>3091.84</v>
       </c>
       <c r="C14" s="4">
         <v>24.0</v>
       </c>
       <c r="D14" s="4">
-        <v>8.745778031E9</v>
+        <v>1.701380341E9</v>
       </c>
       <c r="E14" s="4">
-        <v>2.96951102E7</v>
+        <v>9275814.69</v>
       </c>
       <c r="F14" s="4">
-        <v>15942.8</v>
+        <v>24514.28</v>
       </c>
       <c r="G14" s="4">
         <v>498668.0</v>
@@ -1787,16 +1787,16 @@
         <v>382.0</v>
       </c>
       <c r="L14" s="4">
-        <v>63586.95974</v>
+        <v>39.83122683</v>
       </c>
       <c r="M14" s="4">
-        <v>1.872757608E7</v>
+        <v>7305.888328</v>
       </c>
       <c r="N14" s="4">
-        <v>34.13875803</v>
+        <v>0.1052666402</v>
       </c>
       <c r="O14" s="4">
-        <v>21.19526767</v>
+        <v>0.0132766538</v>
       </c>
       <c r="P14" s="4">
         <v>1067.811563</v>
@@ -1805,25 +1805,25 @@
         <v>712.065445</v>
       </c>
       <c r="R14" s="4">
-        <v>2173.92</v>
+        <v>1819.53</v>
       </c>
       <c r="S14" s="4">
         <v>126.0</v>
       </c>
       <c r="T14" s="4">
-        <v>2.28103196E8</v>
+        <v>3.978830079E8</v>
       </c>
       <c r="U14" s="4">
-        <v>6521372.24</v>
+        <v>5458646.49</v>
       </c>
       <c r="V14" s="4">
-        <v>12201.49</v>
+        <v>26829.59</v>
       </c>
       <c r="W14" s="4">
-        <v>117060.0</v>
+        <v>131351.0</v>
       </c>
       <c r="X14" s="4">
-        <v>683.0</v>
+        <v>900.0</v>
       </c>
       <c r="Y14" s="4">
         <v>274943.0</v>
@@ -1832,19 +1832,19 @@
         <v>485.0</v>
       </c>
       <c r="AA14" s="4">
-        <v>9548.129195</v>
+        <v>46.175231</v>
       </c>
       <c r="AB14" s="4">
-        <v>333972.4686</v>
+        <v>3365.731749</v>
       </c>
       <c r="AC14" s="4">
-        <v>17.86455344</v>
+        <v>0.2269541576</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.182898975</v>
+        <v>0.01539158438</v>
       </c>
       <c r="AE14" s="4">
-        <v>171.3909224</v>
+        <v>145.9455556</v>
       </c>
       <c r="AF14" s="4">
         <v>566.8927835</v>
@@ -1855,19 +1855,19 @@
         <v>43922.0</v>
       </c>
       <c r="B15" s="4">
-        <v>9099.17</v>
+        <v>2672.32</v>
       </c>
       <c r="C15" s="4">
         <v>18.0</v>
       </c>
       <c r="D15" s="4">
-        <v>2.184886364E9</v>
+        <v>6.473800353E8</v>
       </c>
       <c r="E15" s="4">
-        <v>2.729832656E7</v>
+        <v>8015442.44</v>
       </c>
       <c r="F15" s="4">
-        <v>29197.13</v>
+        <v>52940.98</v>
       </c>
       <c r="G15" s="4">
         <v>521163.0</v>
@@ -1885,16 +1885,16 @@
         <v>290.0</v>
       </c>
       <c r="L15" s="4">
-        <v>20101.8605</v>
+        <v>11.32541577</v>
       </c>
       <c r="M15" s="4">
-        <v>1608900.121</v>
+        <v>914.715328</v>
       </c>
       <c r="N15" s="4">
-        <v>21.50009573</v>
+        <v>0.07480293374</v>
       </c>
       <c r="O15" s="4">
-        <v>6.700419735</v>
+        <v>0.003775853335</v>
       </c>
       <c r="P15" s="4">
         <v>383.7724595</v>
@@ -1903,25 +1903,25 @@
         <v>4414.6</v>
       </c>
       <c r="R15" s="4">
-        <v>2215.98</v>
+        <v>1851.5</v>
       </c>
       <c r="S15" s="4">
         <v>102.0</v>
       </c>
       <c r="T15" s="4">
-        <v>2.339251696E8</v>
+        <v>4.09559709E8</v>
       </c>
       <c r="U15" s="4">
-        <v>6647563.45</v>
+        <v>5554571.44</v>
       </c>
       <c r="V15" s="4">
-        <v>12316.07</v>
+        <v>27095.89</v>
       </c>
       <c r="W15" s="4">
-        <v>119246.0</v>
+        <v>133578.0</v>
       </c>
       <c r="X15" s="4">
-        <v>687.0</v>
+        <v>904.0</v>
       </c>
       <c r="Y15" s="4">
         <v>463384.0</v>
@@ -1930,19 +1930,19 @@
         <v>342.0</v>
       </c>
       <c r="AA15" s="4">
-        <v>9676.220451</v>
+        <v>45.99887282</v>
       </c>
       <c r="AB15" s="4">
-        <v>340502.4302</v>
+        <v>3391.672098</v>
       </c>
       <c r="AC15" s="4">
-        <v>17.92732169</v>
+        <v>0.22438822</v>
       </c>
       <c r="AD15" s="4">
-        <v>3.22558952</v>
+        <v>0.0153327604</v>
       </c>
       <c r="AE15" s="4">
-        <v>173.5749636</v>
+        <v>147.7632743</v>
       </c>
       <c r="AF15" s="4">
         <v>1354.923977</v>
@@ -1953,19 +1953,19 @@
         <v>44013.0</v>
       </c>
       <c r="B16" s="4">
-        <v>9162.35</v>
+        <v>2718.15</v>
       </c>
       <c r="C16" s="4">
         <v>13.0</v>
       </c>
       <c r="D16" s="4">
-        <v>2.186376796E9</v>
+        <v>6.538513245E8</v>
       </c>
       <c r="E16" s="4">
-        <v>2.748788616E7</v>
+        <v>8153569.25</v>
       </c>
       <c r="F16" s="4">
-        <v>29263.81</v>
+        <v>52368.57</v>
       </c>
       <c r="G16" s="4">
         <v>523953.0</v>
@@ -1983,16 +1983,16 @@
         <v>226.0</v>
       </c>
       <c r="L16" s="4">
-        <v>20167.19454</v>
+        <v>11.41719916</v>
       </c>
       <c r="M16" s="4">
-        <v>1604091.56</v>
+        <v>915.568454</v>
       </c>
       <c r="N16" s="4">
-        <v>21.47014674</v>
+        <v>0.07333014231</v>
       </c>
       <c r="O16" s="4">
-        <v>6.72219369</v>
+        <v>0.00380614415</v>
       </c>
       <c r="P16" s="4">
         <v>384.4115921</v>
@@ -2001,25 +2001,25 @@
         <v>11816.26991</v>
       </c>
       <c r="R16" s="4">
-        <v>2250.26</v>
+        <v>1881.44</v>
       </c>
       <c r="S16" s="4">
         <v>72.0</v>
       </c>
       <c r="T16" s="4">
-        <v>2.375778013E8</v>
+        <v>4.174513319E8</v>
       </c>
       <c r="U16" s="4">
-        <v>6750355.59</v>
+        <v>5644202.24</v>
       </c>
       <c r="V16" s="4">
-        <v>12502.3</v>
+        <v>27540.7</v>
       </c>
       <c r="W16" s="4">
-        <v>121248.0</v>
+        <v>135788.0</v>
       </c>
       <c r="X16" s="4">
-        <v>697.0</v>
+        <v>915.0</v>
       </c>
       <c r="Y16" s="4">
         <v>194219.0</v>
@@ -2028,19 +2028,19 @@
         <v>474.0</v>
       </c>
       <c r="AA16" s="4">
-        <v>9684.871722</v>
+        <v>45.42763012</v>
       </c>
       <c r="AB16" s="4">
-        <v>340857.6776</v>
+        <v>3359.876895</v>
       </c>
       <c r="AC16" s="4">
-        <v>17.93730273</v>
+        <v>0.2216626335</v>
       </c>
       <c r="AD16" s="4">
-        <v>3.228493544</v>
+        <v>0.0151428593</v>
       </c>
       <c r="AE16" s="4">
-        <v>173.9569584</v>
+        <v>148.4021858</v>
       </c>
       <c r="AF16" s="4">
         <v>409.7447257</v>
@@ -2051,19 +2051,19 @@
         <v>44105.0</v>
       </c>
       <c r="B17" s="4">
-        <v>9242.44</v>
+        <v>2757.65</v>
       </c>
       <c r="C17" s="4">
         <v>21.0</v>
       </c>
       <c r="D17" s="4">
-        <v>2.18840864E9</v>
+        <v>6.781222693E8</v>
       </c>
       <c r="E17" s="4">
-        <v>2.772821361E7</v>
+        <v>8272501.07</v>
       </c>
       <c r="F17" s="4">
-        <v>29410.22</v>
+        <v>52767.45</v>
       </c>
       <c r="G17" s="4">
         <v>527838.0</v>
@@ -2081,16 +2081,16 @@
         <v>312.0</v>
       </c>
       <c r="L17" s="4">
-        <v>20269.162</v>
+        <v>11.45645047</v>
       </c>
       <c r="M17" s="4">
-        <v>1599713.918</v>
+        <v>939.1203612</v>
       </c>
       <c r="N17" s="4">
-        <v>21.49869883</v>
+        <v>0.07307677236</v>
       </c>
       <c r="O17" s="4">
-        <v>6.756169591</v>
+        <v>0.003819024063</v>
       </c>
       <c r="P17" s="4">
         <v>385.8464912</v>
@@ -2099,25 +2099,25 @@
         <v>325.5032051</v>
       </c>
       <c r="R17" s="4">
-        <v>2269.82</v>
+        <v>1894.08</v>
       </c>
       <c r="S17" s="4">
         <v>82.0</v>
       </c>
       <c r="T17" s="4">
-        <v>2.403713499E8</v>
+        <v>4.198349211E8</v>
       </c>
       <c r="U17" s="4">
-        <v>6809176.37</v>
+        <v>5682117.96</v>
       </c>
       <c r="V17" s="4">
-        <v>12558.58</v>
+        <v>27696.22</v>
       </c>
       <c r="W17" s="4">
-        <v>122211.0</v>
+        <v>136791.0</v>
       </c>
       <c r="X17" s="4">
-        <v>699.0</v>
+        <v>918.0</v>
       </c>
       <c r="Y17" s="4">
         <v>164998.0</v>
@@ -2126,19 +2126,19 @@
         <v>469.0</v>
       </c>
       <c r="AA17" s="4">
-        <v>9741.310973</v>
+        <v>45.24910981</v>
       </c>
       <c r="AB17" s="4">
-        <v>343878.8983</v>
+        <v>3343.323138</v>
       </c>
       <c r="AC17" s="4">
-        <v>17.96649499</v>
+        <v>0.22055672</v>
       </c>
       <c r="AD17" s="4">
-        <v>3.247238913</v>
+        <v>0.01508336056</v>
       </c>
       <c r="AE17" s="4">
-        <v>174.8369099</v>
+        <v>149.0098039</v>
       </c>
       <c r="AF17" s="4">
         <v>351.8081023</v>
@@ -2149,19 +2149,19 @@
         <v>44197.0</v>
       </c>
       <c r="B18" s="4">
-        <v>10289.42</v>
+        <v>3052.14</v>
       </c>
       <c r="C18" s="4">
         <v>13.0</v>
       </c>
       <c r="D18" s="4">
-        <v>2.692486313E9</v>
+        <v>7.650377171E8</v>
       </c>
       <c r="E18" s="4">
-        <v>3.086929288E7</v>
+        <v>9156029.82</v>
       </c>
       <c r="F18" s="4">
-        <v>32092.95</v>
+        <v>58194.79</v>
       </c>
       <c r="G18" s="4">
         <v>579675.0</v>
@@ -2179,16 +2179,16 @@
         <v>72.0</v>
       </c>
       <c r="L18" s="4">
-        <v>20110.28852</v>
+        <v>10.2899733</v>
       </c>
       <c r="M18" s="4">
-        <v>1754062.745</v>
+        <v>859.7850638</v>
       </c>
       <c r="N18" s="4">
-        <v>20.90745928</v>
+        <v>0.06540201891</v>
       </c>
       <c r="O18" s="4">
-        <v>6.703205212</v>
+        <v>0.003430137268</v>
       </c>
       <c r="P18" s="4">
         <v>377.6384365</v>
@@ -2197,25 +2197,25 @@
         <v>488.3888889</v>
       </c>
       <c r="R18" s="4">
-        <v>2297.16</v>
+        <v>1976.32</v>
       </c>
       <c r="S18" s="4">
         <v>62.0</v>
       </c>
       <c r="T18" s="4">
-        <v>2.446493856E8</v>
+        <v>4.684346197E8</v>
       </c>
       <c r="U18" s="4">
-        <v>6891405.71</v>
+        <v>5928734.02</v>
       </c>
       <c r="V18" s="4">
-        <v>12594.47</v>
+        <v>27968.56</v>
       </c>
       <c r="W18" s="4">
-        <v>123546.0</v>
+        <v>138356.0</v>
       </c>
       <c r="X18" s="4">
-        <v>701.0</v>
+        <v>921.0</v>
       </c>
       <c r="Y18" s="4">
         <v>4294009.0</v>
@@ -2224,19 +2224,19 @@
         <v>487.0</v>
       </c>
       <c r="AA18" s="4">
-        <v>9830.82127</v>
+        <v>46.52692378</v>
       </c>
       <c r="AB18" s="4">
-        <v>349000.55</v>
+        <v>3676.134192</v>
       </c>
       <c r="AC18" s="4">
-        <v>17.96643367</v>
+        <v>0.219488858</v>
       </c>
       <c r="AD18" s="4">
-        <v>3.276975749</v>
+        <v>0.01550956573</v>
       </c>
       <c r="AE18" s="4">
-        <v>176.2425107</v>
+        <v>150.2236699</v>
       </c>
       <c r="AF18" s="4">
         <v>8817.26694</v>
@@ -2247,19 +2247,19 @@
         <v>44287.0</v>
       </c>
       <c r="B19" s="4">
-        <v>9465.63</v>
+        <v>2830.82</v>
       </c>
       <c r="C19" s="4">
         <v>10.0</v>
       </c>
       <c r="D19" s="4">
-        <v>2.343923153E9</v>
+        <v>7.045583572E8</v>
       </c>
       <c r="E19" s="4">
-        <v>2.839753921E7</v>
+        <v>8491464.76</v>
       </c>
       <c r="F19" s="4">
-        <v>29704.27</v>
+        <v>53066.57</v>
       </c>
       <c r="G19" s="4">
         <v>537839.0</v>
@@ -2277,16 +2277,16 @@
         <v>140.0</v>
       </c>
       <c r="L19" s="4">
-        <v>20697.91488</v>
+        <v>11.5073735</v>
       </c>
       <c r="M19" s="4">
-        <v>1708398.799</v>
+        <v>954.7959509</v>
       </c>
       <c r="N19" s="4">
-        <v>21.65034257</v>
+        <v>0.07191419369</v>
       </c>
       <c r="O19" s="4">
-        <v>6.89914723</v>
+        <v>0.00383624074</v>
       </c>
       <c r="P19" s="4">
         <v>392.0109329</v>
@@ -2295,25 +2295,25 @@
         <v>11642.17857</v>
       </c>
       <c r="R19" s="4">
-        <v>2155.72</v>
+        <v>1792.91</v>
       </c>
       <c r="S19" s="4">
         <v>56.0</v>
       </c>
       <c r="T19" s="4">
-        <v>2.367182576E8</v>
+        <v>4.311164229E8</v>
       </c>
       <c r="U19" s="4">
-        <v>6467177.68</v>
+        <v>5378394.55</v>
       </c>
       <c r="V19" s="4">
-        <v>13011.55</v>
+        <v>26311.83</v>
       </c>
       <c r="W19" s="4">
-        <v>115580.0</v>
+        <v>129254.0</v>
       </c>
       <c r="X19" s="4">
-        <v>704.0</v>
+        <v>930.0</v>
       </c>
       <c r="Y19" s="4">
         <v>3406555.0</v>
@@ -2322,19 +2322,19 @@
         <v>636.0</v>
       </c>
       <c r="AA19" s="4">
-        <v>9186.331932</v>
+        <v>44.74306363</v>
       </c>
       <c r="AB19" s="4">
-        <v>336247.525</v>
+        <v>3586.473503</v>
       </c>
       <c r="AC19" s="4">
-        <v>18.48231534</v>
+        <v>0.2188890891</v>
       </c>
       <c r="AD19" s="4">
-        <v>3.062102273</v>
+        <v>0.01491528475</v>
       </c>
       <c r="AE19" s="4">
-        <v>164.1761364</v>
+        <v>138.9827957</v>
       </c>
       <c r="AF19" s="4">
         <v>5356.218553</v>
@@ -2345,19 +2345,19 @@
         <v>44378.0</v>
       </c>
       <c r="B20" s="4">
-        <v>10286.38</v>
+        <v>3050.15</v>
       </c>
       <c r="C20" s="4">
         <v>11.0</v>
       </c>
       <c r="D20" s="4">
-        <v>2.692174707E9</v>
+        <v>7.64333182E8</v>
       </c>
       <c r="E20" s="4">
-        <v>3.086015752E7</v>
+        <v>9150109.4</v>
       </c>
       <c r="F20" s="4">
-        <v>32071.94</v>
+        <v>58155.59</v>
       </c>
       <c r="G20" s="4">
         <v>579513.0</v>
@@ -2375,16 +2375,16 @@
         <v>106.0</v>
       </c>
       <c r="L20" s="4">
-        <v>20117.44297</v>
+        <v>10.29289978</v>
       </c>
       <c r="M20" s="4">
-        <v>1755003.068</v>
+        <v>859.7935278</v>
       </c>
       <c r="N20" s="4">
-        <v>20.90739244</v>
+        <v>0.06541885276</v>
       </c>
       <c r="O20" s="4">
-        <v>6.70559322</v>
+        <v>0.003431094307</v>
       </c>
       <c r="P20" s="4">
         <v>377.7790091</v>
@@ -2393,25 +2393,25 @@
         <v>3196.075472</v>
       </c>
       <c r="R20" s="4">
-        <v>2155.54</v>
+        <v>1798.96</v>
       </c>
       <c r="S20" s="4">
         <v>47.0</v>
       </c>
       <c r="T20" s="4">
-        <v>2.355964172E8</v>
+        <v>4.31127693E8</v>
       </c>
       <c r="U20" s="4">
-        <v>6466405.39</v>
+        <v>5396797.74</v>
       </c>
       <c r="V20" s="4">
-        <v>13004.39</v>
+        <v>26217.54</v>
       </c>
       <c r="W20" s="4">
-        <v>116132.0</v>
+        <v>129829.0</v>
       </c>
       <c r="X20" s="4">
-        <v>709.0</v>
+        <v>931.0</v>
       </c>
       <c r="Y20" s="4">
         <v>5213331.0</v>
@@ -2420,19 +2420,19 @@
         <v>596.0</v>
       </c>
       <c r="AA20" s="4">
-        <v>9120.458942</v>
+        <v>44.64930971</v>
       </c>
       <c r="AB20" s="4">
-        <v>332293.9593</v>
+        <v>3566.847382</v>
       </c>
       <c r="AC20" s="4">
-        <v>18.34187588</v>
+        <v>0.216905491</v>
       </c>
       <c r="AD20" s="4">
-        <v>3.040253879</v>
+        <v>0.01488333009</v>
       </c>
       <c r="AE20" s="4">
-        <v>163.796897</v>
+        <v>139.4511278</v>
       </c>
       <c r="AF20" s="4">
         <v>8747.199664</v>
@@ -2443,19 +2443,19 @@
         <v>44470.0</v>
       </c>
       <c r="B21" s="4">
-        <v>10300.19</v>
+        <v>3057.01</v>
       </c>
       <c r="C21" s="4">
         <v>24.0</v>
       </c>
       <c r="D21" s="4">
-        <v>2.703755235E9</v>
+        <v>7.668690249E8</v>
       </c>
       <c r="E21" s="4">
-        <v>3.090164249E7</v>
+        <v>9170103.35</v>
       </c>
       <c r="F21" s="4">
-        <v>32146.16</v>
+        <v>58210.0</v>
       </c>
       <c r="G21" s="4">
         <v>579915.0</v>
@@ -2473,16 +2473,16 @@
         <v>133.0</v>
       </c>
       <c r="L21" s="4">
-        <v>20131.36319</v>
+        <v>10.3015247</v>
       </c>
       <c r="M21" s="4">
-        <v>1761404.062</v>
+        <v>861.4864959</v>
       </c>
       <c r="N21" s="4">
-        <v>20.94212378</v>
+        <v>0.06539203867</v>
       </c>
       <c r="O21" s="4">
-        <v>6.710221498</v>
+        <v>0.003434188561</v>
       </c>
       <c r="P21" s="4">
         <v>377.7947883</v>
@@ -2491,25 +2491,25 @@
         <v>1277.263158</v>
       </c>
       <c r="R21" s="4">
-        <v>2164.2</v>
+        <v>1810.54</v>
       </c>
       <c r="S21" s="4">
         <v>39.0</v>
       </c>
       <c r="T21" s="4">
-        <v>2.371549379E8</v>
+        <v>4.363527585E8</v>
       </c>
       <c r="U21" s="4">
-        <v>6492409.88</v>
+        <v>5431522.76</v>
       </c>
       <c r="V21" s="4">
-        <v>13011.27</v>
+        <v>26342.17</v>
       </c>
       <c r="W21" s="4">
-        <v>116536.0</v>
+        <v>130516.0</v>
       </c>
       <c r="X21" s="4">
-        <v>709.0</v>
+        <v>936.0</v>
       </c>
       <c r="Y21" s="4">
         <v>2147747.0</v>
@@ -2518,19 +2518,19 @@
         <v>261.0</v>
       </c>
       <c r="AA21" s="4">
-        <v>9157.136643</v>
+        <v>44.46128392</v>
       </c>
       <c r="AB21" s="4">
-        <v>334492.155</v>
+        <v>3571.890378</v>
       </c>
       <c r="AC21" s="4">
-        <v>18.35157969</v>
+        <v>0.215631371</v>
       </c>
       <c r="AD21" s="4">
-        <v>3.052468265</v>
+        <v>0.0148206933</v>
       </c>
       <c r="AE21" s="4">
-        <v>164.3667137</v>
+        <v>139.4401709</v>
       </c>
       <c r="AF21" s="4">
         <v>8228.915709</v>
@@ -2541,19 +2541,19 @@
         <v>44562.0</v>
       </c>
       <c r="B22" s="4">
-        <v>10726.59</v>
+        <v>3185.43</v>
       </c>
       <c r="C22" s="4">
         <v>27.0</v>
       </c>
       <c r="D22" s="4">
-        <v>2.849551491E9</v>
+        <v>7.948597219E8</v>
       </c>
       <c r="E22" s="4">
-        <v>3.218104941E7</v>
+        <v>9555869.22</v>
       </c>
       <c r="F22" s="4">
-        <v>33252.35</v>
+        <v>60055.54</v>
       </c>
       <c r="G22" s="4">
         <v>601959.0</v>
@@ -2571,16 +2571,16 @@
         <v>37.0</v>
       </c>
       <c r="L22" s="4">
-        <v>20316.31907</v>
+        <v>10.02185484</v>
       </c>
       <c r="M22" s="4">
-        <v>1798959.275</v>
+        <v>833.6205289</v>
       </c>
       <c r="N22" s="4">
-        <v>20.9926452</v>
+        <v>0.06298410857</v>
       </c>
       <c r="O22" s="4">
-        <v>6.771837121</v>
+        <v>0.003340765381</v>
       </c>
       <c r="P22" s="4">
         <v>380.0246212</v>
@@ -2589,25 +2589,25 @@
         <v>3028.540541</v>
       </c>
       <c r="R22" s="4">
-        <v>2190.27</v>
+        <v>1936.27</v>
       </c>
       <c r="S22" s="4">
         <v>23.0</v>
       </c>
       <c r="T22" s="4">
-        <v>2.40221183E8</v>
+        <v>4.976348219E8</v>
       </c>
       <c r="U22" s="4">
-        <v>6570700.04</v>
+        <v>5808664.94</v>
       </c>
       <c r="V22" s="4">
-        <v>13255.4</v>
+        <v>26875.97</v>
       </c>
       <c r="W22" s="4">
-        <v>118183.0</v>
+        <v>172787.0</v>
       </c>
       <c r="X22" s="4">
-        <v>724.0</v>
+        <v>954.0</v>
       </c>
       <c r="Y22" s="4">
         <v>2817601.0</v>
@@ -2616,19 +2616,19 @@
         <v>258.0</v>
       </c>
       <c r="AA22" s="4">
-        <v>9075.552541</v>
+        <v>35.23845727</v>
       </c>
       <c r="AB22" s="4">
-        <v>331797.2141</v>
+        <v>3018.918045</v>
       </c>
       <c r="AC22" s="4">
-        <v>18.30856354</v>
+        <v>0.1630439576</v>
       </c>
       <c r="AD22" s="4">
-        <v>3.025234807</v>
+        <v>0.01174644576</v>
       </c>
       <c r="AE22" s="4">
-        <v>163.2361878</v>
+        <v>181.1184486</v>
       </c>
       <c r="AF22" s="4">
         <v>10920.93411</v>
@@ -2639,19 +2639,19 @@
         <v>44652.0</v>
       </c>
       <c r="B23" s="4">
-        <v>10783.54</v>
+        <v>3196.43</v>
       </c>
       <c r="C23" s="4">
         <v>17.0</v>
       </c>
       <c r="D23" s="4">
-        <v>2.867516371E9</v>
+        <v>7.979157837E8</v>
       </c>
       <c r="E23" s="4">
-        <v>3.235186924E7</v>
+        <v>9588882.97</v>
       </c>
       <c r="F23" s="4">
-        <v>33281.69</v>
+        <v>60058.31</v>
       </c>
       <c r="G23" s="4">
         <v>604345.0</v>
@@ -2669,16 +2669,16 @@
         <v>125.0</v>
       </c>
       <c r="L23" s="4">
-        <v>20424.15987</v>
+        <v>10.01677475</v>
       </c>
       <c r="M23" s="4">
-        <v>1810300.739</v>
+        <v>833.5217664</v>
       </c>
       <c r="N23" s="4">
-        <v>21.01116793</v>
+        <v>0.06273833613</v>
       </c>
       <c r="O23" s="4">
-        <v>6.807790404</v>
+        <v>0.003339066646</v>
       </c>
       <c r="P23" s="4">
         <v>381.5309343</v>
@@ -2687,25 +2687,25 @@
         <v>1022.416</v>
       </c>
       <c r="R23" s="4">
-        <v>2194.32</v>
+        <v>1946.72</v>
       </c>
       <c r="S23" s="4">
         <v>13.0</v>
       </c>
       <c r="T23" s="4">
-        <v>2.406710178E8</v>
+        <v>4.991598136E8</v>
       </c>
       <c r="U23" s="4">
-        <v>6582931.23</v>
+        <v>5839915.89</v>
       </c>
       <c r="V23" s="4">
-        <v>13360.83</v>
+        <v>27034.92</v>
       </c>
       <c r="W23" s="4">
-        <v>118485.0</v>
+        <v>173620.0</v>
       </c>
       <c r="X23" s="4">
-        <v>740.0</v>
+        <v>972.0</v>
       </c>
       <c r="Y23" s="4">
         <v>3749364.0</v>
@@ -2714,19 +2714,19 @@
         <v>247.0</v>
       </c>
       <c r="AA23" s="4">
-        <v>8895.853014</v>
+        <v>34.60513719</v>
       </c>
       <c r="AB23" s="4">
-        <v>325231.1051</v>
+        <v>2957.832639</v>
       </c>
       <c r="AC23" s="4">
-        <v>18.05517568</v>
+        <v>0.1601987312</v>
       </c>
       <c r="AD23" s="4">
-        <v>2.965297297</v>
+        <v>0.0115355279</v>
       </c>
       <c r="AE23" s="4">
-        <v>160.1148649</v>
+        <v>178.6213992</v>
       </c>
       <c r="AF23" s="4">
         <v>15179.61134</v>
@@ -2737,19 +2737,19 @@
         <v>44743.0</v>
       </c>
       <c r="B24" s="4">
-        <v>10904.25</v>
+        <v>3232.52</v>
       </c>
       <c r="C24" s="4">
         <v>16.0</v>
       </c>
       <c r="D24" s="4">
-        <v>2.928888333E9</v>
+        <v>8.114509046E8</v>
       </c>
       <c r="E24" s="4">
-        <v>3.271322918E7</v>
+        <v>9700375.18</v>
       </c>
       <c r="F24" s="4">
-        <v>33542.53</v>
+        <v>60548.06</v>
       </c>
       <c r="G24" s="4">
         <v>609840.0</v>
@@ -2767,16 +2767,16 @@
         <v>91.0</v>
       </c>
       <c r="L24" s="4">
-        <v>20600.27026</v>
+        <v>10.01664142</v>
       </c>
       <c r="M24" s="4">
-        <v>1844388.119</v>
+        <v>837.9070488</v>
       </c>
       <c r="N24" s="4">
-        <v>21.1225</v>
+        <v>0.06252213902</v>
       </c>
       <c r="O24" s="4">
-        <v>6.866656171</v>
+        <v>0.003337911484</v>
       </c>
       <c r="P24" s="4">
         <v>384.0302267</v>
@@ -2785,25 +2785,25 @@
         <v>235.5494505</v>
       </c>
       <c r="R24" s="4">
-        <v>2205.9</v>
+        <v>1958.14</v>
       </c>
       <c r="S24" s="4">
         <v>32.0</v>
       </c>
       <c r="T24" s="4">
-        <v>2.437447053E8</v>
+        <v>5.072075349E8</v>
       </c>
       <c r="U24" s="4">
-        <v>6617745.98</v>
+        <v>5874132.26</v>
       </c>
       <c r="V24" s="4">
-        <v>13377.95</v>
+        <v>27075.23</v>
       </c>
       <c r="W24" s="4">
-        <v>119015.0</v>
+        <v>174223.0</v>
       </c>
       <c r="X24" s="4">
-        <v>740.0</v>
+        <v>972.0</v>
       </c>
       <c r="Y24" s="4">
         <v>825260.0</v>
@@ -2812,19 +2812,19 @@
         <v>256.0</v>
       </c>
       <c r="AA24" s="4">
-        <v>8942.899973</v>
+        <v>34.68741754</v>
       </c>
       <c r="AB24" s="4">
-        <v>329384.7369</v>
+        <v>2995.118047</v>
       </c>
       <c r="AC24" s="4">
-        <v>18.07831081</v>
+        <v>0.1598823054</v>
       </c>
       <c r="AD24" s="4">
-        <v>2.980945946</v>
+        <v>0.01156303889</v>
       </c>
       <c r="AE24" s="4">
-        <v>160.8310811</v>
+        <v>179.2417695</v>
       </c>
       <c r="AF24" s="4">
         <v>3223.671875</v>
@@ -2835,19 +2835,19 @@
         <v>44835.0</v>
       </c>
       <c r="B25" s="4">
-        <v>10956.31</v>
+        <v>3245.29</v>
       </c>
       <c r="C25" s="4">
         <v>13.0</v>
       </c>
       <c r="D25" s="4">
-        <v>2.970573543E9</v>
+        <v>8.148899212E8</v>
       </c>
       <c r="E25" s="4">
-        <v>3.286940026E7</v>
+        <v>9738679.82</v>
       </c>
       <c r="F25" s="4">
-        <v>33720.25</v>
+        <v>60864.36</v>
       </c>
       <c r="G25" s="4">
         <v>612628.0</v>
@@ -2865,16 +2865,16 @@
         <v>77.0</v>
       </c>
       <c r="L25" s="4">
-        <v>20569.08652</v>
+        <v>9.947786835</v>
       </c>
       <c r="M25" s="4">
-        <v>1858932.13</v>
+        <v>832.3870771</v>
       </c>
       <c r="N25" s="4">
-        <v>21.10153317</v>
+        <v>0.06217122755</v>
       </c>
       <c r="O25" s="4">
-        <v>6.85626408</v>
+        <v>0.003314972228</v>
       </c>
       <c r="P25" s="4">
         <v>383.3717146</v>
@@ -2883,25 +2883,25 @@
         <v>710.6753247</v>
       </c>
       <c r="R25" s="4">
-        <v>2243.78</v>
+        <v>1990.52</v>
       </c>
       <c r="S25" s="4">
         <v>31.0</v>
       </c>
       <c r="T25" s="4">
-        <v>2.510058774E8</v>
+        <v>5.217676465E8</v>
       </c>
       <c r="U25" s="4">
-        <v>6731388.58</v>
+        <v>5971169.53</v>
       </c>
       <c r="V25" s="4">
-        <v>13546.72</v>
+        <v>27405.59</v>
       </c>
       <c r="W25" s="4">
-        <v>121254.0</v>
+        <v>176593.0</v>
       </c>
       <c r="X25" s="4">
-        <v>748.0</v>
+        <v>981.0</v>
       </c>
       <c r="Y25" s="4">
         <v>9017230.0</v>
@@ -2910,19 +2910,19 @@
         <v>264.0</v>
       </c>
       <c r="AA25" s="4">
-        <v>8999.182594</v>
+        <v>34.46806551</v>
       </c>
       <c r="AB25" s="4">
-        <v>335569.3548</v>
+        <v>3011.859123</v>
       </c>
       <c r="AC25" s="4">
-        <v>18.11058824</v>
+        <v>0.1581964248</v>
       </c>
       <c r="AD25" s="4">
-        <v>2.999705882</v>
+        <v>0.01149010649</v>
       </c>
       <c r="AE25" s="4">
-        <v>162.1042781</v>
+        <v>180.0132518</v>
       </c>
       <c r="AF25" s="4">
         <v>34156.17424</v>
@@ -2933,19 +2933,19 @@
         <v>44927.0</v>
       </c>
       <c r="B26" s="4">
-        <v>11045.14</v>
+        <v>3274.67</v>
       </c>
       <c r="C26" s="4">
         <v>12.0</v>
       </c>
       <c r="D26" s="4">
-        <v>3.01255252E9</v>
+        <v>8.262905916E8</v>
       </c>
       <c r="E26" s="4">
-        <v>3.313577627E7</v>
+        <v>9826791.22</v>
       </c>
       <c r="F26" s="4">
-        <v>33851.78</v>
+        <v>61088.21</v>
       </c>
       <c r="G26" s="4">
         <v>617921.0</v>
@@ -2963,16 +2963,16 @@
         <v>153.0</v>
       </c>
       <c r="L26" s="4">
-        <v>20709.86017</v>
+        <v>9.939368483</v>
       </c>
       <c r="M26" s="4">
-        <v>1882845.325</v>
+        <v>835.7567063</v>
       </c>
       <c r="N26" s="4">
-        <v>21.1573625</v>
+        <v>0.06178804613</v>
       </c>
       <c r="O26" s="4">
-        <v>6.9032125</v>
+        <v>0.003312185134</v>
       </c>
       <c r="P26" s="4">
         <v>386.200625</v>
@@ -2981,25 +2981,25 @@
         <v>981.0261438</v>
       </c>
       <c r="R26" s="4">
-        <v>2257.56</v>
+        <v>1992.64</v>
       </c>
       <c r="S26" s="4">
         <v>32.0</v>
       </c>
       <c r="T26" s="4">
-        <v>2.528929062E8</v>
+        <v>5.241463538E8</v>
       </c>
       <c r="U26" s="4">
-        <v>6772664.53</v>
+        <v>5977444.82</v>
       </c>
       <c r="V26" s="4">
-        <v>13609.29</v>
+        <v>27488.14</v>
       </c>
       <c r="W26" s="4">
-        <v>122052.0</v>
+        <v>179524.0</v>
       </c>
       <c r="X26" s="4">
-        <v>752.0</v>
+        <v>983.0</v>
       </c>
       <c r="Y26" s="4">
         <v>2929413.0</v>
@@ -3008,19 +3008,19 @@
         <v>481.0</v>
       </c>
       <c r="AA26" s="4">
-        <v>9006.202832</v>
+        <v>33.87189868</v>
       </c>
       <c r="AB26" s="4">
-        <v>336293.7582</v>
+        <v>2970.137362</v>
       </c>
       <c r="AC26" s="4">
-        <v>18.09746011</v>
+        <v>0.1557647993</v>
       </c>
       <c r="AD26" s="4">
-        <v>3.002074468</v>
+        <v>0.01129153045</v>
       </c>
       <c r="AE26" s="4">
-        <v>162.3031915</v>
+        <v>182.6286877</v>
       </c>
       <c r="AF26" s="4">
         <v>6090.255717</v>
@@ -3031,19 +3031,19 @@
         <v>45017.0</v>
       </c>
       <c r="B27" s="4">
-        <v>11148.93</v>
+        <v>3293.54</v>
       </c>
       <c r="C27" s="4">
         <v>23.0</v>
       </c>
       <c r="D27" s="4">
-        <v>3.033214067E9</v>
+        <v>8.314409582E8</v>
       </c>
       <c r="E27" s="4">
-        <v>3.344706505E7</v>
+        <v>9883327.05</v>
       </c>
       <c r="F27" s="4">
-        <v>33972.22</v>
+        <v>61317.84</v>
       </c>
       <c r="G27" s="4">
         <v>622371.0</v>
@@ -3061,16 +3061,16 @@
         <v>221.0</v>
       </c>
       <c r="L27" s="4">
-        <v>20826.31697</v>
+        <v>9.887995905</v>
       </c>
       <c r="M27" s="4">
-        <v>1888676.256</v>
+        <v>831.8337284</v>
       </c>
       <c r="N27" s="4">
-        <v>21.15331258</v>
+        <v>0.06134680637</v>
       </c>
       <c r="O27" s="4">
-        <v>6.942048568</v>
+        <v>0.003295095859</v>
       </c>
       <c r="P27" s="4">
         <v>387.5286426</v>
@@ -3079,25 +3079,25 @@
         <v>3434.723982</v>
       </c>
       <c r="R27" s="4">
-        <v>2280.5</v>
+        <v>2010.51</v>
       </c>
       <c r="S27" s="4">
         <v>46.0</v>
       </c>
       <c r="T27" s="4">
-        <v>2.565626219E8</v>
+        <v>5.320356772E8</v>
       </c>
       <c r="U27" s="4">
-        <v>6841366.44</v>
+        <v>6030986.19</v>
       </c>
       <c r="V27" s="4">
-        <v>13638.22</v>
+        <v>27554.59</v>
       </c>
       <c r="W27" s="4">
-        <v>123055.0</v>
+        <v>180486.0</v>
       </c>
       <c r="X27" s="4">
-        <v>752.0</v>
+        <v>983.0</v>
       </c>
       <c r="Y27" s="4">
         <v>66900.0</v>
@@ -3106,19 +3106,19 @@
         <v>269.0</v>
       </c>
       <c r="AA27" s="4">
-        <v>9097.561755</v>
+        <v>33.99314104</v>
       </c>
       <c r="AB27" s="4">
-        <v>341173.6994</v>
+        <v>2998.773872</v>
       </c>
       <c r="AC27" s="4">
-        <v>18.13593085</v>
+        <v>0.1553091044</v>
       </c>
       <c r="AD27" s="4">
-        <v>3.032579787</v>
+        <v>0.01133206872</v>
       </c>
       <c r="AE27" s="4">
-        <v>163.6369681</v>
+        <v>183.6073245</v>
       </c>
       <c r="AF27" s="4">
         <v>248.6988848</v>
@@ -3129,19 +3129,19 @@
         <v>45108.0</v>
       </c>
       <c r="B28" s="4">
-        <v>11380.64</v>
+        <v>3372.96</v>
       </c>
       <c r="C28" s="4">
         <v>20.0</v>
       </c>
       <c r="D28" s="4">
-        <v>3.163362732E9</v>
+        <v>8.488629035E8</v>
       </c>
       <c r="E28" s="4">
-        <v>3.414235456E7</v>
+        <v>1.012207829E7</v>
       </c>
       <c r="F28" s="4">
-        <v>34416.1</v>
+        <v>61522.57</v>
       </c>
       <c r="G28" s="4">
         <v>633971.0</v>
@@ -3159,16 +3159,16 @@
         <v>128.0</v>
       </c>
       <c r="L28" s="4">
-        <v>21193.26788</v>
+        <v>9.910709797</v>
       </c>
       <c r="M28" s="4">
-        <v>1963601.944</v>
+        <v>831.1370109</v>
       </c>
       <c r="N28" s="4">
-        <v>21.36319056</v>
+        <v>0.06023786023</v>
       </c>
       <c r="O28" s="4">
-        <v>7.064332713</v>
+        <v>0.003302526098</v>
       </c>
       <c r="P28" s="4">
         <v>393.5263811</v>
@@ -3177,25 +3177,25 @@
         <v>558.2109375</v>
       </c>
       <c r="R28" s="4">
-        <v>2289.8</v>
+        <v>2023.77</v>
       </c>
       <c r="S28" s="4">
         <v>37.0</v>
       </c>
       <c r="T28" s="4">
-        <v>2.57230435E8</v>
+        <v>5.342285278E8</v>
       </c>
       <c r="U28" s="4">
-        <v>6869366.11</v>
+        <v>6070755.39</v>
       </c>
       <c r="V28" s="4">
-        <v>13736.93</v>
+        <v>27762.57</v>
       </c>
       <c r="W28" s="4">
-        <v>123620.0</v>
+        <v>181279.0</v>
       </c>
       <c r="X28" s="4">
-        <v>757.0</v>
+        <v>989.0</v>
       </c>
       <c r="Y28" s="4">
         <v>111564.0</v>
@@ -3204,19 +3204,19 @@
         <v>206.0</v>
       </c>
       <c r="AA28" s="4">
-        <v>9074.459855</v>
+        <v>33.86093497</v>
       </c>
       <c r="AB28" s="4">
-        <v>339802.424</v>
+        <v>2979.773731</v>
       </c>
       <c r="AC28" s="4">
-        <v>18.14653897</v>
+        <v>0.1548516646</v>
       </c>
       <c r="AD28" s="4">
-        <v>3.024834875</v>
+        <v>0.01128800948</v>
       </c>
       <c r="AE28" s="4">
-        <v>163.3025099</v>
+        <v>183.2952477</v>
       </c>
       <c r="AF28" s="4">
         <v>541.5728155</v>
@@ -3227,19 +3227,19 @@
         <v>45200.0</v>
       </c>
       <c r="B29" s="4">
-        <v>11493.08</v>
+        <v>3396.48</v>
       </c>
       <c r="C29" s="4">
         <v>26.0</v>
       </c>
       <c r="D29" s="4">
-        <v>3.211426527E9</v>
+        <v>8.512319417E8</v>
       </c>
       <c r="E29" s="4">
-        <v>3.447933027E7</v>
+        <v>1.019260771E7</v>
       </c>
       <c r="F29" s="4">
-        <v>34682.53</v>
+        <v>62033.21</v>
       </c>
       <c r="G29" s="4">
         <v>639391.0</v>
@@ -3257,16 +3257,16 @@
         <v>70.0</v>
       </c>
       <c r="L29" s="4">
-        <v>21257.29363</v>
+        <v>9.828063204</v>
       </c>
       <c r="M29" s="4">
-        <v>1979917.711</v>
+        <v>820.7871393</v>
       </c>
       <c r="N29" s="4">
-        <v>21.3825709</v>
+        <v>0.05981455639</v>
       </c>
       <c r="O29" s="4">
-        <v>7.085745993</v>
+        <v>0.00327500293</v>
       </c>
       <c r="P29" s="4">
         <v>394.1991369</v>
@@ -3275,25 +3275,25 @@
         <v>131.1857143</v>
       </c>
       <c r="R29" s="4">
-        <v>2308.61</v>
+        <v>2040.3</v>
       </c>
       <c r="S29" s="4">
         <v>47.0</v>
       </c>
       <c r="T29" s="4">
-        <v>2.599734357E8</v>
+        <v>5.398182126E8</v>
       </c>
       <c r="U29" s="4">
-        <v>6925758.61</v>
+        <v>6120370.14</v>
       </c>
       <c r="V29" s="4">
-        <v>13770.78</v>
+        <v>27861.9</v>
       </c>
       <c r="W29" s="4">
-        <v>124556.0</v>
+        <v>182296.0</v>
       </c>
       <c r="X29" s="4">
-        <v>758.0</v>
+        <v>990.0</v>
       </c>
       <c r="Y29" s="4">
         <v>16451.0</v>
@@ -3302,19 +3302,19 @@
         <v>144.0</v>
       </c>
       <c r="AA29" s="4">
-        <v>9136.88471</v>
+        <v>33.91293315</v>
       </c>
       <c r="AB29" s="4">
-        <v>342972.8703</v>
+        <v>2991.129382</v>
       </c>
       <c r="AC29" s="4">
-        <v>18.16725594</v>
+        <v>0.1543826158</v>
       </c>
       <c r="AD29" s="4">
-        <v>3.045659631</v>
+        <v>0.0113052897</v>
       </c>
       <c r="AE29" s="4">
-        <v>164.3218997</v>
+        <v>184.1373737</v>
       </c>
       <c r="AF29" s="4">
         <v>114.2430556</v>
@@ -3325,19 +3325,19 @@
         <v>45292.0</v>
       </c>
       <c r="B30" s="4">
-        <v>11496.04</v>
+        <v>3397.44</v>
       </c>
       <c r="C30" s="4">
         <v>12.0</v>
       </c>
       <c r="D30" s="4">
-        <v>3.212851014E9</v>
+        <v>8.515381215E8</v>
       </c>
       <c r="E30" s="4">
-        <v>3.44882306E7</v>
+        <v>1.019549615E7</v>
       </c>
       <c r="F30" s="4">
-        <v>34682.91</v>
+        <v>62029.95</v>
       </c>
       <c r="G30" s="4">
         <v>639516.0</v>
@@ -3355,16 +3355,16 @@
         <v>161.0</v>
       </c>
       <c r="L30" s="4">
-        <v>21262.78089</v>
+        <v>9.828926797</v>
       </c>
       <c r="M30" s="4">
-        <v>1980795.939</v>
+        <v>820.9218794</v>
       </c>
       <c r="N30" s="4">
-        <v>21.38280518</v>
+        <v>0.05979972223</v>
       </c>
       <c r="O30" s="4">
-        <v>7.0875709</v>
+        <v>0.003275288281</v>
       </c>
       <c r="P30" s="4">
         <v>394.2762022</v>
@@ -3373,25 +3373,25 @@
         <v>98.95031056</v>
       </c>
       <c r="R30" s="4">
-        <v>2314.03</v>
+        <v>2043.94</v>
       </c>
       <c r="S30" s="4">
         <v>46.0</v>
       </c>
       <c r="T30" s="4">
-        <v>2.605712031E8</v>
+        <v>5.415266348E8</v>
       </c>
       <c r="U30" s="4">
-        <v>6942012.08</v>
+        <v>6131268.4</v>
       </c>
       <c r="V30" s="4">
-        <v>13772.79</v>
+        <v>27898.73</v>
       </c>
       <c r="W30" s="4">
-        <v>124681.0</v>
+        <v>182421.0</v>
       </c>
       <c r="X30" s="4">
-        <v>758.0</v>
+        <v>990.0</v>
       </c>
       <c r="Y30" s="4">
         <v>1890136.0</v>
@@ -3400,19 +3400,19 @@
         <v>432.0</v>
       </c>
       <c r="AA30" s="4">
-        <v>9158.327282</v>
+        <v>33.95004086</v>
       </c>
       <c r="AB30" s="4">
-        <v>343761.4817</v>
+        <v>2998.539646</v>
       </c>
       <c r="AC30" s="4">
-        <v>18.16990765</v>
+        <v>0.1544807635</v>
       </c>
       <c r="AD30" s="4">
-        <v>3.052810026</v>
+        <v>0.01131769839</v>
       </c>
       <c r="AE30" s="4">
-        <v>164.4868074</v>
+        <v>184.2636364</v>
       </c>
       <c r="AF30" s="4">
         <v>4375.314815</v>
@@ -3423,19 +3423,19 @@
         <v>45383.0</v>
       </c>
       <c r="B31" s="4">
-        <v>11513.14</v>
+        <v>3402.1</v>
       </c>
       <c r="C31" s="4">
         <v>17.0</v>
       </c>
       <c r="D31" s="4">
-        <v>3.214831194E9</v>
+        <v>8.527886061E8</v>
       </c>
       <c r="E31" s="4">
-        <v>3.453948572E7</v>
+        <v>1.020949982E7</v>
       </c>
       <c r="F31" s="4">
-        <v>34712.6</v>
+        <v>62083.5</v>
       </c>
       <c r="G31" s="4">
         <v>640359.0</v>
@@ -3453,16 +3453,16 @@
         <v>127.0</v>
       </c>
       <c r="L31" s="4">
-        <v>21281.26046</v>
+        <v>9.823413566</v>
       </c>
       <c r="M31" s="4">
-        <v>1980795.56</v>
+        <v>820.539234</v>
       </c>
       <c r="N31" s="4">
-        <v>21.3879236</v>
+        <v>0.0597357272</v>
       </c>
       <c r="O31" s="4">
-        <v>7.093739988</v>
+        <v>0.003273444917</v>
       </c>
       <c r="P31" s="4">
         <v>394.5526802</v>
@@ -3471,25 +3471,25 @@
         <v>3233.212598</v>
       </c>
       <c r="R31" s="4">
-        <v>2342.56</v>
+        <v>2081.83</v>
       </c>
       <c r="S31" s="4">
         <v>34.0</v>
       </c>
       <c r="T31" s="4">
-        <v>2.652600962E8</v>
+        <v>5.585527217E8</v>
       </c>
       <c r="U31" s="4">
-        <v>7027598.31</v>
+        <v>6245266.14</v>
       </c>
       <c r="V31" s="4">
-        <v>13844.93</v>
+        <v>28121.48</v>
       </c>
       <c r="W31" s="4">
-        <v>125882.0</v>
+        <v>183829.0</v>
       </c>
       <c r="X31" s="4">
-        <v>760.0</v>
+        <v>992.0</v>
       </c>
       <c r="Y31" s="4">
         <v>383119.0</v>
@@ -3498,19 +3498,19 @@
         <v>543.0</v>
       </c>
       <c r="AA31" s="4">
-        <v>9246.839882</v>
+        <v>34.24721447</v>
       </c>
       <c r="AB31" s="4">
-        <v>349026.4424</v>
+        <v>3062.939902</v>
       </c>
       <c r="AC31" s="4">
-        <v>18.21701316</v>
+        <v>0.1542099785</v>
       </c>
       <c r="AD31" s="4">
-        <v>3.082315789</v>
+        <v>0.01141614735</v>
       </c>
       <c r="AE31" s="4">
-        <v>165.6342105</v>
+        <v>185.3114919</v>
       </c>
       <c r="AF31" s="4">
         <v>705.5598527</v>
@@ -3521,19 +3521,19 @@
         <v>45474.0</v>
       </c>
       <c r="B32" s="4">
-        <v>12030.09</v>
+        <v>3588.07</v>
       </c>
       <c r="C32" s="4">
         <v>32.0</v>
       </c>
       <c r="D32" s="4">
-        <v>3.283883301E9</v>
+        <v>9.008756028E8</v>
       </c>
       <c r="E32" s="4">
-        <v>3.609133639E7</v>
+        <v>1.076586805E7</v>
       </c>
       <c r="F32" s="4">
-        <v>36026.93</v>
+        <v>65114.29</v>
       </c>
       <c r="G32" s="4">
         <v>680378.0</v>
@@ -3551,16 +3551,16 @@
         <v>301.0</v>
       </c>
       <c r="L32" s="4">
-        <v>22237.4223</v>
+        <v>9.749453462</v>
       </c>
       <c r="M32" s="4">
-        <v>2023341.529</v>
+        <v>815.8231852</v>
       </c>
       <c r="N32" s="4">
-        <v>22.19773876</v>
+        <v>0.05896679554</v>
       </c>
       <c r="O32" s="4">
-        <v>7.412255083</v>
+        <v>0.003249317317</v>
       </c>
       <c r="P32" s="4">
         <v>419.2101047</v>
@@ -3569,25 +3569,25 @@
         <v>9759.342193</v>
       </c>
       <c r="R32" s="4">
-        <v>2333.07</v>
+        <v>2096.42</v>
       </c>
       <c r="S32" s="4">
         <v>41.0</v>
       </c>
       <c r="T32" s="4">
-        <v>2.633553047E8</v>
+        <v>5.633242061E8</v>
       </c>
       <c r="U32" s="4">
-        <v>6999163.32</v>
+        <v>6288859.91</v>
       </c>
       <c r="V32" s="4">
-        <v>13845.24</v>
+        <v>28179.51</v>
       </c>
       <c r="W32" s="4">
-        <v>126481.0</v>
+        <v>184619.0</v>
       </c>
       <c r="X32" s="4">
-        <v>761.0</v>
+        <v>993.0</v>
       </c>
       <c r="Y32" s="4">
         <v>2.1752537E7</v>
@@ -3596,19 +3596,19 @@
         <v>431.0</v>
       </c>
       <c r="AA32" s="4">
-        <v>9197.323679</v>
+        <v>34.3041196</v>
       </c>
       <c r="AB32" s="4">
-        <v>346064.7894</v>
+        <v>3072.78922</v>
       </c>
       <c r="AC32" s="4">
-        <v>18.19348226</v>
+        <v>0.1537120074</v>
       </c>
       <c r="AD32" s="4">
-        <v>3.065795007</v>
+        <v>0.01143543399</v>
       </c>
       <c r="AE32" s="4">
-        <v>166.2036794</v>
+        <v>185.9204431</v>
       </c>
       <c r="AF32" s="4">
         <v>50469.92343</v>
@@ -3619,19 +3619,19 @@
         <v>45566.0</v>
       </c>
       <c r="B33" s="4">
-        <v>13480.62</v>
+        <v>4005.57</v>
       </c>
       <c r="C33" s="4">
         <v>45.0</v>
       </c>
       <c r="D33" s="4">
-        <v>3.627560098E9</v>
+        <v>1.023259622E9</v>
       </c>
       <c r="E33" s="4">
-        <v>4.044182175E7</v>
+        <v>1.201728906E7</v>
       </c>
       <c r="F33" s="4">
-        <v>39745.81</v>
+        <v>71044.32</v>
       </c>
       <c r="G33" s="4">
         <v>762721.0</v>
@@ -3649,16 +3649,16 @@
         <v>541.0</v>
       </c>
       <c r="L33" s="4">
-        <v>23650.18816</v>
+        <v>9.213925434</v>
       </c>
       <c r="M33" s="4">
-        <v>2121380.174</v>
+        <v>784.5561345</v>
       </c>
       <c r="N33" s="4">
-        <v>23.24316374</v>
+        <v>0.05447127582</v>
       </c>
       <c r="O33" s="4">
-        <v>7.883403509</v>
+        <v>0.003071160485</v>
       </c>
       <c r="P33" s="4">
         <v>446.0356725</v>
@@ -3667,25 +3667,25 @@
         <v>2671.029575</v>
       </c>
       <c r="R33" s="4">
-        <v>2465.71</v>
+        <v>2174.67</v>
       </c>
       <c r="S33" s="4">
         <v>40.0</v>
       </c>
       <c r="T33" s="4">
-        <v>2.859007531E8</v>
+        <v>5.803426029E8</v>
       </c>
       <c r="U33" s="4">
-        <v>7397199.91</v>
+        <v>6523778.26</v>
       </c>
       <c r="V33" s="4">
-        <v>14590.96</v>
+        <v>28826.63</v>
       </c>
       <c r="W33" s="4">
-        <v>133479.0</v>
+        <v>190399.0</v>
       </c>
       <c r="X33" s="4">
-        <v>794.0</v>
+        <v>1017.0</v>
       </c>
       <c r="Y33" s="4">
         <v>7217870.0</v>
@@ -3694,19 +3694,19 @@
         <v>210.0</v>
       </c>
       <c r="AA33" s="4">
-        <v>9316.372683</v>
+        <v>33.69097467</v>
       </c>
       <c r="AB33" s="4">
-        <v>360076.5153</v>
+        <v>2997.083462</v>
       </c>
       <c r="AC33" s="4">
-        <v>18.37652393</v>
+        <v>0.1488703666</v>
       </c>
       <c r="AD33" s="4">
-        <v>3.105428212</v>
+        <v>0.01123072382</v>
       </c>
       <c r="AE33" s="4">
-        <v>168.1095718</v>
+        <v>187.2163225</v>
       </c>
       <c r="AF33" s="4">
         <v>34370.80952</v>
@@ -3717,19 +3717,19 @@
         <v>45658.0</v>
       </c>
       <c r="B34" s="4">
-        <v>13069.47</v>
+        <v>3905.13</v>
       </c>
       <c r="C34" s="4">
         <v>48.0</v>
       </c>
       <c r="D34" s="4">
-        <v>3.470789763E9</v>
+        <v>9.933003133E8</v>
       </c>
       <c r="E34" s="4">
-        <v>3.920801615E7</v>
+        <v>1.171544635E7</v>
       </c>
       <c r="F34" s="4">
-        <v>38715.29</v>
+        <v>69769.99</v>
       </c>
       <c r="G34" s="4">
         <v>740566.0</v>
@@ -3747,16 +3747,16 @@
         <v>300.0</v>
       </c>
       <c r="L34" s="4">
-        <v>23338.10485</v>
+        <v>9.416419293</v>
       </c>
       <c r="M34" s="4">
-        <v>2065946.288</v>
+        <v>798.3760887</v>
       </c>
       <c r="N34" s="4">
-        <v>23.04481548</v>
+        <v>0.05607839943</v>
       </c>
       <c r="O34" s="4">
-        <v>7.779446429</v>
+        <v>0.003138791334</v>
       </c>
       <c r="P34" s="4">
         <v>440.8130952</v>
@@ -3765,25 +3765,25 @@
         <v>5499.57</v>
       </c>
       <c r="R34" s="4">
-        <v>2417.98</v>
+        <v>2207.47</v>
       </c>
       <c r="S34" s="4">
         <v>24.0</v>
       </c>
       <c r="T34" s="4">
-        <v>2.81263147E8</v>
+        <v>6.589927014E8</v>
       </c>
       <c r="U34" s="4">
-        <v>7253959.42</v>
+        <v>6622217.59</v>
       </c>
       <c r="V34" s="4">
-        <v>14334.94</v>
+        <v>28173.89</v>
       </c>
       <c r="W34" s="4">
-        <v>130568.0</v>
+        <v>185017.0</v>
       </c>
       <c r="X34" s="4">
-        <v>781.0</v>
+        <v>996.0</v>
       </c>
       <c r="Y34" s="4">
         <v>78001.0</v>
@@ -3792,19 +3792,19 @@
         <v>77.0</v>
       </c>
       <c r="AA34" s="4">
-        <v>9288.04023</v>
+        <v>35.93622662</v>
       </c>
       <c r="AB34" s="4">
-        <v>360132.0705</v>
+        <v>3576.09981</v>
       </c>
       <c r="AC34" s="4">
-        <v>18.35459667</v>
+        <v>0.1528888597</v>
       </c>
       <c r="AD34" s="4">
-        <v>3.096005122</v>
+        <v>0.01197909025</v>
       </c>
       <c r="AE34" s="4">
-        <v>167.1805378</v>
+        <v>185.7600402</v>
       </c>
       <c r="AF34" s="4">
         <v>1013.0</v>
@@ -3938,19 +3938,19 @@
         <v>48</v>
       </c>
       <c r="C2" s="4">
-        <v>357.04</v>
+        <v>201.37</v>
       </c>
       <c r="D2" s="4">
         <v>5.0</v>
       </c>
       <c r="E2" s="4">
-        <v>6.850183616E7</v>
+        <v>8.274176088E7</v>
       </c>
       <c r="F2" s="4">
-        <v>1071115.59</v>
+        <v>604098.21</v>
       </c>
       <c r="G2" s="4">
-        <v>691.72</v>
+        <v>1397.38</v>
       </c>
       <c r="H2" s="4">
         <v>17612.0</v>
@@ -3965,16 +3965,16 @@
         <v>136.0</v>
       </c>
       <c r="L2" s="4">
-        <v>29753.21083</v>
+        <v>952.7882031</v>
       </c>
       <c r="M2" s="4">
-        <v>1902828.782</v>
+        <v>130500.9225</v>
       </c>
       <c r="N2" s="4">
-        <v>19.21444444</v>
+        <v>2.20395816</v>
       </c>
       <c r="O2" s="4">
-        <v>9.917777778</v>
+        <v>0.3176022661</v>
       </c>
       <c r="P2" s="4">
         <v>489.2222222</v>
@@ -3991,19 +3991,19 @@
         <v>48</v>
       </c>
       <c r="C3" s="4">
-        <v>365.42</v>
+        <v>190.55</v>
       </c>
       <c r="D3" s="4">
         <v>1.0</v>
       </c>
       <c r="E3" s="4">
-        <v>4.059657053E7</v>
+        <v>4.438313062E7</v>
       </c>
       <c r="F3" s="4">
-        <v>1096243.02</v>
+        <v>571684.53</v>
       </c>
       <c r="G3" s="4">
-        <v>1322.57</v>
+        <v>2642.29</v>
       </c>
       <c r="H3" s="4">
         <v>20442.0</v>
@@ -4018,16 +4018,16 @@
         <v>152.0</v>
       </c>
       <c r="L3" s="4">
-        <v>15440.04254</v>
+        <v>393.8897754</v>
       </c>
       <c r="M3" s="4">
-        <v>571782.6835</v>
+        <v>30579.90978</v>
       </c>
       <c r="N3" s="4">
-        <v>18.62774648</v>
+        <v>1.820533808</v>
       </c>
       <c r="O3" s="4">
-        <v>5.146760563</v>
+        <v>0.1312886614</v>
       </c>
       <c r="P3" s="4">
         <v>287.915493</v>
@@ -4044,19 +4044,19 @@
         <v>48</v>
       </c>
       <c r="C4" s="4">
-        <v>388.53</v>
+        <v>206.55</v>
       </c>
       <c r="D4" s="4">
         <v>2.0</v>
       </c>
       <c r="E4" s="4">
-        <v>4.393733387E7</v>
+        <v>5.032983618E7</v>
       </c>
       <c r="F4" s="4">
-        <v>1165660.67</v>
+        <v>619700.1</v>
       </c>
       <c r="G4" s="4">
-        <v>1380.51</v>
+        <v>2789.79</v>
       </c>
       <c r="H4" s="4">
         <v>21815.0</v>
@@ -4071,16 +4071,16 @@
         <v>44.0</v>
       </c>
       <c r="L4" s="4">
-        <v>15967.95438</v>
+        <v>389.1378623</v>
       </c>
       <c r="M4" s="4">
-        <v>601881.2859</v>
+        <v>31604.39196</v>
       </c>
       <c r="N4" s="4">
-        <v>18.91109589</v>
+        <v>1.751835956</v>
       </c>
       <c r="O4" s="4">
-        <v>5.322328767</v>
+        <v>0.1297021341</v>
       </c>
       <c r="P4" s="4">
         <v>298.8356164</v>
@@ -4097,19 +4097,19 @@
         <v>48</v>
       </c>
       <c r="C5" s="4">
-        <v>406.29</v>
+        <v>221.46</v>
       </c>
       <c r="D5" s="4">
         <v>4.0</v>
       </c>
       <c r="E5" s="4">
-        <v>4.635006783E7</v>
+        <v>5.434904302E7</v>
       </c>
       <c r="F5" s="4">
-        <v>1218953.17</v>
+        <v>664426.52</v>
       </c>
       <c r="G5" s="4">
-        <v>1430.16</v>
+        <v>2895.2</v>
       </c>
       <c r="H5" s="4">
         <v>22948.0</v>
@@ -4124,16 +4124,16 @@
         <v>109.0</v>
       </c>
       <c r="L5" s="4">
-        <v>16038.8575</v>
+        <v>380.9680238</v>
       </c>
       <c r="M5" s="4">
-        <v>609869.3136</v>
+        <v>31162.58441</v>
       </c>
       <c r="N5" s="4">
-        <v>18.81789474</v>
+        <v>1.660046054</v>
       </c>
       <c r="O5" s="4">
-        <v>5.345921053</v>
+        <v>0.1269804501</v>
       </c>
       <c r="P5" s="4">
         <v>301.9473684</v>
@@ -4150,19 +4150,19 @@
         <v>48</v>
       </c>
       <c r="C6" s="4">
-        <v>422.13</v>
+        <v>230.35</v>
       </c>
       <c r="D6" s="4">
         <v>0.0</v>
       </c>
       <c r="E6" s="4">
-        <v>4.830743464E7</v>
+        <v>5.74927668E7</v>
       </c>
       <c r="F6" s="4">
-        <v>1266444.66</v>
+        <v>691196.29</v>
       </c>
       <c r="G6" s="4">
-        <v>1465.38</v>
+        <v>2985.27</v>
       </c>
       <c r="H6" s="4">
         <v>23722.0</v>
@@ -4177,16 +4177,16 @@
         <v>166.0</v>
       </c>
       <c r="L6" s="4">
-        <v>16447.33325</v>
+        <v>378.407183</v>
       </c>
       <c r="M6" s="4">
-        <v>627369.281</v>
+        <v>31475.39453</v>
       </c>
       <c r="N6" s="4">
-        <v>19.03090909</v>
+        <v>1.634336913</v>
       </c>
       <c r="O6" s="4">
-        <v>5.482207792</v>
+        <v>0.1261090313</v>
       </c>
       <c r="P6" s="4">
         <v>308.0779221</v>
@@ -4203,19 +4203,19 @@
         <v>48</v>
       </c>
       <c r="C7" s="4">
-        <v>495.87</v>
+        <v>273.02</v>
       </c>
       <c r="D7" s="4">
         <v>3.0</v>
       </c>
       <c r="E7" s="4">
-        <v>6.013885318E7</v>
+        <v>7.170500125E7</v>
       </c>
       <c r="F7" s="4">
-        <v>1487584.93</v>
+        <v>819154.69</v>
       </c>
       <c r="G7" s="4">
-        <v>1592.0</v>
+        <v>3290.79</v>
       </c>
       <c r="H7" s="4">
         <v>28280.0</v>
@@ -4230,16 +4230,16 @@
         <v>249.0</v>
       </c>
       <c r="L7" s="4">
-        <v>17922.71</v>
+        <v>348.9863371</v>
       </c>
       <c r="M7" s="4">
-        <v>724564.4961</v>
+        <v>30548.6449</v>
       </c>
       <c r="N7" s="4">
-        <v>19.18072289</v>
+        <v>1.401982754</v>
       </c>
       <c r="O7" s="4">
-        <v>5.974337349</v>
+        <v>0.116315332</v>
       </c>
       <c r="P7" s="4">
         <v>340.7228916</v>
@@ -4256,19 +4256,19 @@
         <v>48</v>
       </c>
       <c r="C8" s="4">
-        <v>5458.58</v>
+        <v>1433.13</v>
       </c>
       <c r="D8" s="4">
         <v>26.0</v>
       </c>
       <c r="E8" s="4">
-        <v>9.481113542E8</v>
+        <v>3.235209765E8</v>
       </c>
       <c r="F8" s="4">
-        <v>1.637627822E7</v>
+        <v>4299406.56</v>
       </c>
       <c r="G8" s="4">
-        <v>16714.2</v>
+        <v>31892.09</v>
       </c>
       <c r="H8" s="4">
         <v>306465.0</v>
@@ -4283,16 +4283,16 @@
         <v>94.0</v>
       </c>
       <c r="L8" s="4">
-        <v>19683.02671</v>
+        <v>16.86181444</v>
       </c>
       <c r="M8" s="4">
-        <v>1139556.916</v>
+        <v>1268.8148</v>
       </c>
       <c r="N8" s="4">
-        <v>20.08918269</v>
+        <v>0.125077379</v>
       </c>
       <c r="O8" s="4">
-        <v>6.560793269</v>
+        <v>0.005620583164</v>
       </c>
       <c r="P8" s="4">
         <v>368.3473558</v>
@@ -4309,19 +4309,19 @@
         <v>48</v>
       </c>
       <c r="C9" s="4">
-        <v>5964.88</v>
+        <v>1811.46</v>
       </c>
       <c r="D9" s="4">
         <v>14.0</v>
       </c>
       <c r="E9" s="4">
-        <v>1.049630651E9</v>
+        <v>3.660247184E8</v>
       </c>
       <c r="F9" s="4">
-        <v>1.789467248E7</v>
+        <v>5434433.7</v>
       </c>
       <c r="G9" s="4">
-        <v>18088.51</v>
+        <v>32433.3</v>
       </c>
       <c r="H9" s="4">
         <v>338793.0</v>
@@ -4336,16 +4336,16 @@
         <v>39.0</v>
       </c>
       <c r="L9" s="4">
-        <v>20357.98917</v>
+        <v>18.24866048</v>
       </c>
       <c r="M9" s="4">
-        <v>1194119.057</v>
+        <v>1229.099697</v>
       </c>
       <c r="N9" s="4">
-        <v>20.57850967</v>
+        <v>0.1089100194</v>
       </c>
       <c r="O9" s="4">
-        <v>6.785984073</v>
+        <v>0.006082826719</v>
       </c>
       <c r="P9" s="4">
         <v>385.4300341</v>
@@ -4362,19 +4362,19 @@
         <v>48</v>
       </c>
       <c r="C10" s="4">
-        <v>6575.3</v>
+        <v>1976.09</v>
       </c>
       <c r="D10" s="4">
         <v>19.0</v>
       </c>
       <c r="E10" s="4">
-        <v>1.21057956E9</v>
+        <v>4.019090935E8</v>
       </c>
       <c r="F10" s="4">
-        <v>1.972630586E7</v>
+        <v>5927913.29</v>
       </c>
       <c r="G10" s="4">
-        <v>19902.72</v>
+        <v>35197.01</v>
       </c>
       <c r="H10" s="4">
         <v>370821.0</v>
@@ -4389,16 +4389,16 @@
         <v>31.0</v>
       </c>
       <c r="L10" s="4">
-        <v>19245.17645</v>
+        <v>15.59601543</v>
       </c>
       <c r="M10" s="4">
-        <v>1181053.229</v>
+        <v>1057.400829</v>
       </c>
       <c r="N10" s="4">
-        <v>19.4172878</v>
+        <v>0.09260140699</v>
       </c>
       <c r="O10" s="4">
-        <v>6.414926829</v>
+        <v>0.005198984639</v>
       </c>
       <c r="P10" s="4">
         <v>361.7765854</v>
@@ -4415,19 +4415,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="4">
-        <v>6996.04</v>
+        <v>2104.74</v>
       </c>
       <c r="D11" s="4">
         <v>13.0</v>
       </c>
       <c r="E11" s="4">
-        <v>1.353278738E9</v>
+        <v>4.36748468E8</v>
       </c>
       <c r="F11" s="4">
-        <v>2.098847947E7</v>
+        <v>6314233.71</v>
       </c>
       <c r="G11" s="4">
-        <v>20934.38</v>
+        <v>36833.57</v>
       </c>
       <c r="H11" s="4">
         <v>392094.0</v>
@@ -4442,16 +4442,16 @@
         <v>104.0</v>
       </c>
       <c r="L11" s="4">
-        <v>19781.79026</v>
+        <v>15.1780183</v>
       </c>
       <c r="M11" s="4">
-        <v>1275474.777</v>
+        <v>1049.846512</v>
       </c>
       <c r="N11" s="4">
-        <v>19.73080113</v>
+        <v>0.08853973816</v>
       </c>
       <c r="O11" s="4">
-        <v>6.593817154</v>
+        <v>0.005059328447</v>
       </c>
       <c r="P11" s="4">
         <v>369.5513666</v>
@@ -4468,19 +4468,19 @@
         <v>48</v>
       </c>
       <c r="C12" s="4">
-        <v>8920.75</v>
+        <v>2791.93</v>
       </c>
       <c r="D12" s="4">
         <v>11.0</v>
       </c>
       <c r="E12" s="4">
-        <v>7.364860311E9</v>
+        <v>1.48238417E9</v>
       </c>
       <c r="F12" s="4">
-        <v>2.676197709E7</v>
+        <v>8376297.41</v>
       </c>
       <c r="G12" s="4">
-        <v>14800.29</v>
+        <v>22987.27</v>
       </c>
       <c r="H12" s="4">
         <v>453912.0</v>
@@ -4495,16 +4495,16 @@
         <v>63.0</v>
       </c>
       <c r="L12" s="4">
-        <v>61240.22217</v>
+        <v>42.22785171</v>
       </c>
       <c r="M12" s="4">
-        <v>1.685322726E7</v>
+        <v>7473.218278</v>
       </c>
       <c r="N12" s="4">
-        <v>33.8679405</v>
+        <v>0.1158868867</v>
       </c>
       <c r="O12" s="4">
-        <v>20.41361556</v>
+        <v>0.01407509789</v>
       </c>
       <c r="P12" s="4">
         <v>1038.700229</v>
@@ -4521,19 +4521,19 @@
         <v>48</v>
       </c>
       <c r="C13" s="4">
-        <v>9366.8</v>
+        <v>2924.92</v>
       </c>
       <c r="D13" s="4">
         <v>9.0</v>
       </c>
       <c r="E13" s="4">
-        <v>7.89410327E9</v>
+        <v>1.571297033E9</v>
       </c>
       <c r="F13" s="4">
-        <v>2.810017192E7</v>
+        <v>8775379.96</v>
       </c>
       <c r="G13" s="4">
-        <v>15451.13</v>
+        <v>24142.21</v>
       </c>
       <c r="H13" s="4">
         <v>475670.0</v>
@@ -4548,16 +4548,16 @@
         <v>219.0</v>
       </c>
       <c r="L13" s="4">
-        <v>61354.08716</v>
+        <v>40.2804849</v>
       </c>
       <c r="M13" s="4">
-        <v>1.723603334E7</v>
+        <v>7212.520335</v>
       </c>
       <c r="N13" s="4">
-        <v>33.7360917</v>
+        <v>0.1108168455</v>
       </c>
       <c r="O13" s="4">
-        <v>20.45152838</v>
+        <v>0.01342587973</v>
       </c>
       <c r="P13" s="4">
         <v>1038.580786</v>
@@ -4574,19 +4574,19 @@
         <v>48</v>
       </c>
       <c r="C14" s="4">
-        <v>9898.19</v>
+        <v>3091.84</v>
       </c>
       <c r="D14" s="4">
         <v>24.0</v>
       </c>
       <c r="E14" s="4">
-        <v>8.745778031E9</v>
+        <v>1.701380341E9</v>
       </c>
       <c r="F14" s="4">
-        <v>2.96951102E7</v>
+        <v>9275814.69</v>
       </c>
       <c r="G14" s="4">
-        <v>15942.8</v>
+        <v>24514.28</v>
       </c>
       <c r="H14" s="4">
         <v>498668.0</v>
@@ -4601,16 +4601,16 @@
         <v>382.0</v>
       </c>
       <c r="L14" s="4">
-        <v>63586.95974</v>
+        <v>39.83122683</v>
       </c>
       <c r="M14" s="4">
-        <v>1.872757608E7</v>
+        <v>7305.888328</v>
       </c>
       <c r="N14" s="4">
-        <v>34.13875803</v>
+        <v>0.1052666402</v>
       </c>
       <c r="O14" s="4">
-        <v>21.19526767</v>
+        <v>0.0132766538</v>
       </c>
       <c r="P14" s="4">
         <v>1067.811563</v>
@@ -4627,19 +4627,19 @@
         <v>48</v>
       </c>
       <c r="C15" s="4">
-        <v>9099.17</v>
+        <v>2672.32</v>
       </c>
       <c r="D15" s="4">
         <v>18.0</v>
       </c>
       <c r="E15" s="4">
-        <v>2.184886364E9</v>
+        <v>6.473800353E8</v>
       </c>
       <c r="F15" s="4">
-        <v>2.729832656E7</v>
+        <v>8015442.44</v>
       </c>
       <c r="G15" s="4">
-        <v>29197.13</v>
+        <v>52940.98</v>
       </c>
       <c r="H15" s="4">
         <v>521163.0</v>
@@ -4654,16 +4654,16 @@
         <v>290.0</v>
       </c>
       <c r="L15" s="4">
-        <v>20101.8605</v>
+        <v>11.32541577</v>
       </c>
       <c r="M15" s="4">
-        <v>1608900.121</v>
+        <v>914.715328</v>
       </c>
       <c r="N15" s="4">
-        <v>21.50009573</v>
+        <v>0.07480293374</v>
       </c>
       <c r="O15" s="4">
-        <v>6.700419735</v>
+        <v>0.003775853335</v>
       </c>
       <c r="P15" s="4">
         <v>383.7724595</v>
@@ -4680,19 +4680,19 @@
         <v>48</v>
       </c>
       <c r="C16" s="4">
-        <v>9162.35</v>
+        <v>2718.15</v>
       </c>
       <c r="D16" s="4">
         <v>13.0</v>
       </c>
       <c r="E16" s="4">
-        <v>2.186376796E9</v>
+        <v>6.538513245E8</v>
       </c>
       <c r="F16" s="4">
-        <v>2.748788616E7</v>
+        <v>8153569.25</v>
       </c>
       <c r="G16" s="4">
-        <v>29263.81</v>
+        <v>52368.57</v>
       </c>
       <c r="H16" s="4">
         <v>523953.0</v>
@@ -4707,16 +4707,16 @@
         <v>226.0</v>
       </c>
       <c r="L16" s="4">
-        <v>20167.19454</v>
+        <v>11.41719916</v>
       </c>
       <c r="M16" s="4">
-        <v>1604091.56</v>
+        <v>915.568454</v>
       </c>
       <c r="N16" s="4">
-        <v>21.47014674</v>
+        <v>0.07333014231</v>
       </c>
       <c r="O16" s="4">
-        <v>6.72219369</v>
+        <v>0.00380614415</v>
       </c>
       <c r="P16" s="4">
         <v>384.4115921</v>
@@ -4733,19 +4733,19 @@
         <v>48</v>
       </c>
       <c r="C17" s="4">
-        <v>9242.44</v>
+        <v>2757.65</v>
       </c>
       <c r="D17" s="4">
         <v>21.0</v>
       </c>
       <c r="E17" s="4">
-        <v>2.18840864E9</v>
+        <v>6.781222693E8</v>
       </c>
       <c r="F17" s="4">
-        <v>2.772821361E7</v>
+        <v>8272501.07</v>
       </c>
       <c r="G17" s="4">
-        <v>29410.22</v>
+        <v>52767.45</v>
       </c>
       <c r="H17" s="4">
         <v>527838.0</v>
@@ -4760,16 +4760,16 @@
         <v>312.0</v>
       </c>
       <c r="L17" s="4">
-        <v>20269.162</v>
+        <v>11.45645047</v>
       </c>
       <c r="M17" s="4">
-        <v>1599713.918</v>
+        <v>939.1203612</v>
       </c>
       <c r="N17" s="4">
-        <v>21.49869883</v>
+        <v>0.07307677236</v>
       </c>
       <c r="O17" s="4">
-        <v>6.756169591</v>
+        <v>0.003819024063</v>
       </c>
       <c r="P17" s="4">
         <v>385.8464912</v>
@@ -4786,19 +4786,19 @@
         <v>48</v>
       </c>
       <c r="C18" s="4">
-        <v>10289.42</v>
+        <v>3052.14</v>
       </c>
       <c r="D18" s="4">
         <v>13.0</v>
       </c>
       <c r="E18" s="4">
-        <v>2.692486313E9</v>
+        <v>7.650377171E8</v>
       </c>
       <c r="F18" s="4">
-        <v>3.086929288E7</v>
+        <v>9156029.82</v>
       </c>
       <c r="G18" s="4">
-        <v>32092.95</v>
+        <v>58194.79</v>
       </c>
       <c r="H18" s="4">
         <v>579675.0</v>
@@ -4813,16 +4813,16 @@
         <v>72.0</v>
       </c>
       <c r="L18" s="4">
-        <v>20110.28852</v>
+        <v>10.2899733</v>
       </c>
       <c r="M18" s="4">
-        <v>1754062.745</v>
+        <v>859.7850638</v>
       </c>
       <c r="N18" s="4">
-        <v>20.90745928</v>
+        <v>0.06540201891</v>
       </c>
       <c r="O18" s="4">
-        <v>6.703205212</v>
+        <v>0.003430137268</v>
       </c>
       <c r="P18" s="4">
         <v>377.6384365</v>
@@ -4839,19 +4839,19 @@
         <v>48</v>
       </c>
       <c r="C19" s="4">
-        <v>9465.63</v>
+        <v>2830.82</v>
       </c>
       <c r="D19" s="4">
         <v>10.0</v>
       </c>
       <c r="E19" s="4">
-        <v>2.343923153E9</v>
+        <v>7.045583572E8</v>
       </c>
       <c r="F19" s="4">
-        <v>2.839753921E7</v>
+        <v>8491464.76</v>
       </c>
       <c r="G19" s="4">
-        <v>29704.27</v>
+        <v>53066.57</v>
       </c>
       <c r="H19" s="4">
         <v>537839.0</v>
@@ -4866,16 +4866,16 @@
         <v>140.0</v>
       </c>
       <c r="L19" s="4">
-        <v>20697.91488</v>
+        <v>11.5073735</v>
       </c>
       <c r="M19" s="4">
-        <v>1708398.799</v>
+        <v>954.7959509</v>
       </c>
       <c r="N19" s="4">
-        <v>21.65034257</v>
+        <v>0.07191419369</v>
       </c>
       <c r="O19" s="4">
-        <v>6.89914723</v>
+        <v>0.00383624074</v>
       </c>
       <c r="P19" s="4">
         <v>392.0109329</v>
@@ -4892,19 +4892,19 @@
         <v>48</v>
       </c>
       <c r="C20" s="4">
-        <v>10286.38</v>
+        <v>3050.15</v>
       </c>
       <c r="D20" s="4">
         <v>11.0</v>
       </c>
       <c r="E20" s="4">
-        <v>2.692174707E9</v>
+        <v>7.64333182E8</v>
       </c>
       <c r="F20" s="4">
-        <v>3.086015752E7</v>
+        <v>9150109.4</v>
       </c>
       <c r="G20" s="4">
-        <v>32071.94</v>
+        <v>58155.59</v>
       </c>
       <c r="H20" s="4">
         <v>579513.0</v>
@@ -4919,16 +4919,16 @@
         <v>106.0</v>
       </c>
       <c r="L20" s="4">
-        <v>20117.44297</v>
+        <v>10.29289978</v>
       </c>
       <c r="M20" s="4">
-        <v>1755003.068</v>
+        <v>859.7935278</v>
       </c>
       <c r="N20" s="4">
-        <v>20.90739244</v>
+        <v>0.06541885276</v>
       </c>
       <c r="O20" s="4">
-        <v>6.70559322</v>
+        <v>0.003431094307</v>
       </c>
       <c r="P20" s="4">
         <v>377.7790091</v>
@@ -4945,19 +4945,19 @@
         <v>48</v>
       </c>
       <c r="C21" s="4">
-        <v>10300.19</v>
+        <v>3057.01</v>
       </c>
       <c r="D21" s="4">
         <v>24.0</v>
       </c>
       <c r="E21" s="4">
-        <v>2.703755235E9</v>
+        <v>7.668690249E8</v>
       </c>
       <c r="F21" s="4">
-        <v>3.090164249E7</v>
+        <v>9170103.35</v>
       </c>
       <c r="G21" s="4">
-        <v>32146.16</v>
+        <v>58210.0</v>
       </c>
       <c r="H21" s="4">
         <v>579915.0</v>
@@ -4972,16 +4972,16 @@
         <v>133.0</v>
       </c>
       <c r="L21" s="4">
-        <v>20131.36319</v>
+        <v>10.3015247</v>
       </c>
       <c r="M21" s="4">
-        <v>1761404.062</v>
+        <v>861.4864959</v>
       </c>
       <c r="N21" s="4">
-        <v>20.94212378</v>
+        <v>0.06539203867</v>
       </c>
       <c r="O21" s="4">
-        <v>6.710221498</v>
+        <v>0.003434188561</v>
       </c>
       <c r="P21" s="4">
         <v>377.7947883</v>
@@ -4998,19 +4998,19 @@
         <v>48</v>
       </c>
       <c r="C22" s="4">
-        <v>10726.59</v>
+        <v>3185.43</v>
       </c>
       <c r="D22" s="4">
         <v>27.0</v>
       </c>
       <c r="E22" s="4">
-        <v>2.849551491E9</v>
+        <v>7.948597219E8</v>
       </c>
       <c r="F22" s="4">
-        <v>3.218104941E7</v>
+        <v>9555869.22</v>
       </c>
       <c r="G22" s="4">
-        <v>33252.35</v>
+        <v>60055.54</v>
       </c>
       <c r="H22" s="4">
         <v>601959.0</v>
@@ -5025,16 +5025,16 @@
         <v>37.0</v>
       </c>
       <c r="L22" s="4">
-        <v>20316.31907</v>
+        <v>10.02185484</v>
       </c>
       <c r="M22" s="4">
-        <v>1798959.275</v>
+        <v>833.6205289</v>
       </c>
       <c r="N22" s="4">
-        <v>20.9926452</v>
+        <v>0.06298410857</v>
       </c>
       <c r="O22" s="4">
-        <v>6.771837121</v>
+        <v>0.003340765381</v>
       </c>
       <c r="P22" s="4">
         <v>380.0246212</v>
@@ -5051,19 +5051,19 @@
         <v>48</v>
       </c>
       <c r="C23" s="4">
-        <v>10783.54</v>
+        <v>3196.43</v>
       </c>
       <c r="D23" s="4">
         <v>17.0</v>
       </c>
       <c r="E23" s="4">
-        <v>2.867516371E9</v>
+        <v>7.979157837E8</v>
       </c>
       <c r="F23" s="4">
-        <v>3.235186924E7</v>
+        <v>9588882.97</v>
       </c>
       <c r="G23" s="4">
-        <v>33281.69</v>
+        <v>60058.31</v>
       </c>
       <c r="H23" s="4">
         <v>604345.0</v>
@@ -5078,16 +5078,16 @@
         <v>125.0</v>
       </c>
       <c r="L23" s="4">
-        <v>20424.15987</v>
+        <v>10.01677475</v>
       </c>
       <c r="M23" s="4">
-        <v>1810300.739</v>
+        <v>833.5217664</v>
       </c>
       <c r="N23" s="4">
-        <v>21.01116793</v>
+        <v>0.06273833613</v>
       </c>
       <c r="O23" s="4">
-        <v>6.807790404</v>
+        <v>0.003339066646</v>
       </c>
       <c r="P23" s="4">
         <v>381.5309343</v>
@@ -5104,19 +5104,19 @@
         <v>48</v>
       </c>
       <c r="C24" s="4">
-        <v>10904.25</v>
+        <v>3232.52</v>
       </c>
       <c r="D24" s="4">
         <v>16.0</v>
       </c>
       <c r="E24" s="4">
-        <v>2.928888333E9</v>
+        <v>8.114509046E8</v>
       </c>
       <c r="F24" s="4">
-        <v>3.271322918E7</v>
+        <v>9700375.18</v>
       </c>
       <c r="G24" s="4">
-        <v>33542.53</v>
+        <v>60548.06</v>
       </c>
       <c r="H24" s="4">
         <v>609840.0</v>
@@ -5131,16 +5131,16 @@
         <v>91.0</v>
       </c>
       <c r="L24" s="4">
-        <v>20600.27026</v>
+        <v>10.01664142</v>
       </c>
       <c r="M24" s="4">
-        <v>1844388.119</v>
+        <v>837.9070488</v>
       </c>
       <c r="N24" s="4">
-        <v>21.1225</v>
+        <v>0.06252213902</v>
       </c>
       <c r="O24" s="4">
-        <v>6.866656171</v>
+        <v>0.003337911484</v>
       </c>
       <c r="P24" s="4">
         <v>384.0302267</v>
@@ -5157,19 +5157,19 @@
         <v>48</v>
       </c>
       <c r="C25" s="4">
-        <v>10956.31</v>
+        <v>3245.29</v>
       </c>
       <c r="D25" s="4">
         <v>13.0</v>
       </c>
       <c r="E25" s="4">
-        <v>2.970573543E9</v>
+        <v>8.148899212E8</v>
       </c>
       <c r="F25" s="4">
-        <v>3.286940026E7</v>
+        <v>9738679.82</v>
       </c>
       <c r="G25" s="4">
-        <v>33720.25</v>
+        <v>60864.36</v>
       </c>
       <c r="H25" s="4">
         <v>612628.0</v>
@@ -5184,16 +5184,16 @@
         <v>77.0</v>
       </c>
       <c r="L25" s="4">
-        <v>20569.08652</v>
+        <v>9.947786835</v>
       </c>
       <c r="M25" s="4">
-        <v>1858932.13</v>
+        <v>832.3870771</v>
       </c>
       <c r="N25" s="4">
-        <v>21.10153317</v>
+        <v>0.06217122755</v>
       </c>
       <c r="O25" s="4">
-        <v>6.85626408</v>
+        <v>0.003314972228</v>
       </c>
       <c r="P25" s="4">
         <v>383.3717146</v>
@@ -5210,19 +5210,19 @@
         <v>48</v>
       </c>
       <c r="C26" s="4">
-        <v>11045.14</v>
+        <v>3274.67</v>
       </c>
       <c r="D26" s="4">
         <v>12.0</v>
       </c>
       <c r="E26" s="4">
-        <v>3.01255252E9</v>
+        <v>8.262905916E8</v>
       </c>
       <c r="F26" s="4">
-        <v>3.313577627E7</v>
+        <v>9826791.22</v>
       </c>
       <c r="G26" s="4">
-        <v>33851.78</v>
+        <v>61088.21</v>
       </c>
       <c r="H26" s="4">
         <v>617921.0</v>
@@ -5237,16 +5237,16 @@
         <v>153.0</v>
       </c>
       <c r="L26" s="4">
-        <v>20709.86017</v>
+        <v>9.939368483</v>
       </c>
       <c r="M26" s="4">
-        <v>1882845.325</v>
+        <v>835.7567063</v>
       </c>
       <c r="N26" s="4">
-        <v>21.1573625</v>
+        <v>0.06178804613</v>
       </c>
       <c r="O26" s="4">
-        <v>6.9032125</v>
+        <v>0.003312185134</v>
       </c>
       <c r="P26" s="4">
         <v>386.200625</v>
@@ -5263,19 +5263,19 @@
         <v>48</v>
       </c>
       <c r="C27" s="4">
-        <v>11148.93</v>
+        <v>3293.54</v>
       </c>
       <c r="D27" s="4">
         <v>23.0</v>
       </c>
       <c r="E27" s="4">
-        <v>3.033214067E9</v>
+        <v>8.314409582E8</v>
       </c>
       <c r="F27" s="4">
-        <v>3.344706505E7</v>
+        <v>9883327.05</v>
       </c>
       <c r="G27" s="4">
-        <v>33972.22</v>
+        <v>61317.84</v>
       </c>
       <c r="H27" s="4">
         <v>622371.0</v>
@@ -5290,16 +5290,16 @@
         <v>221.0</v>
       </c>
       <c r="L27" s="4">
-        <v>20826.31697</v>
+        <v>9.887995905</v>
       </c>
       <c r="M27" s="4">
-        <v>1888676.256</v>
+        <v>831.8337284</v>
       </c>
       <c r="N27" s="4">
-        <v>21.15331258</v>
+        <v>0.06134680637</v>
       </c>
       <c r="O27" s="4">
-        <v>6.942048568</v>
+        <v>0.003295095859</v>
       </c>
       <c r="P27" s="4">
         <v>387.5286426</v>
@@ -5316,19 +5316,19 @@
         <v>48</v>
       </c>
       <c r="C28" s="4">
-        <v>11380.64</v>
+        <v>3372.96</v>
       </c>
       <c r="D28" s="4">
         <v>20.0</v>
       </c>
       <c r="E28" s="4">
-        <v>3.163362732E9</v>
+        <v>8.488629035E8</v>
       </c>
       <c r="F28" s="4">
-        <v>3.414235456E7</v>
+        <v>1.012207829E7</v>
       </c>
       <c r="G28" s="4">
-        <v>34416.1</v>
+        <v>61522.57</v>
       </c>
       <c r="H28" s="4">
         <v>633971.0</v>
@@ -5343,16 +5343,16 @@
         <v>128.0</v>
       </c>
       <c r="L28" s="4">
-        <v>21193.26788</v>
+        <v>9.910709797</v>
       </c>
       <c r="M28" s="4">
-        <v>1963601.944</v>
+        <v>831.1370109</v>
       </c>
       <c r="N28" s="4">
-        <v>21.36319056</v>
+        <v>0.06023786023</v>
       </c>
       <c r="O28" s="4">
-        <v>7.064332713</v>
+        <v>0.003302526098</v>
       </c>
       <c r="P28" s="4">
         <v>393.5263811</v>
@@ -5369,19 +5369,19 @@
         <v>48</v>
       </c>
       <c r="C29" s="4">
-        <v>11493.08</v>
+        <v>3396.48</v>
       </c>
       <c r="D29" s="4">
         <v>26.0</v>
       </c>
       <c r="E29" s="4">
-        <v>3.211426527E9</v>
+        <v>8.512319417E8</v>
       </c>
       <c r="F29" s="4">
-        <v>3.447933027E7</v>
+        <v>1.019260771E7</v>
       </c>
       <c r="G29" s="4">
-        <v>34682.53</v>
+        <v>62033.21</v>
       </c>
       <c r="H29" s="4">
         <v>639391.0</v>
@@ -5396,16 +5396,16 @@
         <v>70.0</v>
       </c>
       <c r="L29" s="4">
-        <v>21257.29363</v>
+        <v>9.828063204</v>
       </c>
       <c r="M29" s="4">
-        <v>1979917.711</v>
+        <v>820.7871393</v>
       </c>
       <c r="N29" s="4">
-        <v>21.3825709</v>
+        <v>0.05981455639</v>
       </c>
       <c r="O29" s="4">
-        <v>7.085745993</v>
+        <v>0.00327500293</v>
       </c>
       <c r="P29" s="4">
         <v>394.1991369</v>
@@ -5422,19 +5422,19 @@
         <v>48</v>
       </c>
       <c r="C30" s="4">
-        <v>11496.04</v>
+        <v>3397.44</v>
       </c>
       <c r="D30" s="4">
         <v>12.0</v>
       </c>
       <c r="E30" s="4">
-        <v>3.212851014E9</v>
+        <v>8.515381215E8</v>
       </c>
       <c r="F30" s="4">
-        <v>3.44882306E7</v>
+        <v>1.019549615E7</v>
       </c>
       <c r="G30" s="4">
-        <v>34682.91</v>
+        <v>62029.95</v>
       </c>
       <c r="H30" s="4">
         <v>639516.0</v>
@@ -5449,16 +5449,16 @@
         <v>161.0</v>
       </c>
       <c r="L30" s="4">
-        <v>21262.78089</v>
+        <v>9.828926797</v>
       </c>
       <c r="M30" s="4">
-        <v>1980795.939</v>
+        <v>820.9218794</v>
       </c>
       <c r="N30" s="4">
-        <v>21.38280518</v>
+        <v>0.05979972223</v>
       </c>
       <c r="O30" s="4">
-        <v>7.0875709</v>
+        <v>0.003275288281</v>
       </c>
       <c r="P30" s="4">
         <v>394.2762022</v>
@@ -5475,19 +5475,19 @@
         <v>48</v>
       </c>
       <c r="C31" s="4">
-        <v>11513.14</v>
+        <v>3402.1</v>
       </c>
       <c r="D31" s="4">
         <v>17.0</v>
       </c>
       <c r="E31" s="4">
-        <v>3.214831194E9</v>
+        <v>8.527886061E8</v>
       </c>
       <c r="F31" s="4">
-        <v>3.453948572E7</v>
+        <v>1.020949982E7</v>
       </c>
       <c r="G31" s="4">
-        <v>34712.6</v>
+        <v>62083.5</v>
       </c>
       <c r="H31" s="4">
         <v>640359.0</v>
@@ -5502,16 +5502,16 @@
         <v>127.0</v>
       </c>
       <c r="L31" s="4">
-        <v>21281.26046</v>
+        <v>9.823413566</v>
       </c>
       <c r="M31" s="4">
-        <v>1980795.56</v>
+        <v>820.539234</v>
       </c>
       <c r="N31" s="4">
-        <v>21.3879236</v>
+        <v>0.0597357272</v>
       </c>
       <c r="O31" s="4">
-        <v>7.093739988</v>
+        <v>0.003273444917</v>
       </c>
       <c r="P31" s="4">
         <v>394.5526802</v>
@@ -5528,19 +5528,19 @@
         <v>48</v>
       </c>
       <c r="C32" s="4">
-        <v>12030.09</v>
+        <v>3588.07</v>
       </c>
       <c r="D32" s="4">
         <v>32.0</v>
       </c>
       <c r="E32" s="4">
-        <v>3.283883301E9</v>
+        <v>9.008756028E8</v>
       </c>
       <c r="F32" s="4">
-        <v>3.609133639E7</v>
+        <v>1.076586805E7</v>
       </c>
       <c r="G32" s="4">
-        <v>36026.93</v>
+        <v>65114.29</v>
       </c>
       <c r="H32" s="4">
         <v>680378.0</v>
@@ -5555,16 +5555,16 @@
         <v>301.0</v>
       </c>
       <c r="L32" s="4">
-        <v>22237.4223</v>
+        <v>9.749453462</v>
       </c>
       <c r="M32" s="4">
-        <v>2023341.529</v>
+        <v>815.8231852</v>
       </c>
       <c r="N32" s="4">
-        <v>22.19773876</v>
+        <v>0.05896679554</v>
       </c>
       <c r="O32" s="4">
-        <v>7.412255083</v>
+        <v>0.003249317317</v>
       </c>
       <c r="P32" s="4">
         <v>419.2101047</v>
@@ -5581,19 +5581,19 @@
         <v>48</v>
       </c>
       <c r="C33" s="4">
-        <v>13480.62</v>
+        <v>4005.57</v>
       </c>
       <c r="D33" s="4">
         <v>45.0</v>
       </c>
       <c r="E33" s="4">
-        <v>3.627560098E9</v>
+        <v>1.023259622E9</v>
       </c>
       <c r="F33" s="4">
-        <v>4.044182175E7</v>
+        <v>1.201728906E7</v>
       </c>
       <c r="G33" s="4">
-        <v>39745.81</v>
+        <v>71044.32</v>
       </c>
       <c r="H33" s="4">
         <v>762721.0</v>
@@ -5608,16 +5608,16 @@
         <v>541.0</v>
       </c>
       <c r="L33" s="4">
-        <v>23650.18816</v>
+        <v>9.213925434</v>
       </c>
       <c r="M33" s="4">
-        <v>2121380.174</v>
+        <v>784.5561345</v>
       </c>
       <c r="N33" s="4">
-        <v>23.24316374</v>
+        <v>0.05447127582</v>
       </c>
       <c r="O33" s="4">
-        <v>7.883403509</v>
+        <v>0.003071160485</v>
       </c>
       <c r="P33" s="4">
         <v>446.0356725</v>
@@ -5634,19 +5634,19 @@
         <v>48</v>
       </c>
       <c r="C34" s="4">
-        <v>13069.47</v>
+        <v>3905.13</v>
       </c>
       <c r="D34" s="4">
         <v>48.0</v>
       </c>
       <c r="E34" s="4">
-        <v>3.470789763E9</v>
+        <v>9.933003133E8</v>
       </c>
       <c r="F34" s="4">
-        <v>3.920801615E7</v>
+        <v>1.171544635E7</v>
       </c>
       <c r="G34" s="4">
-        <v>38715.29</v>
+        <v>69769.99</v>
       </c>
       <c r="H34" s="4">
         <v>740566.0</v>
@@ -5661,16 +5661,16 @@
         <v>300.0</v>
       </c>
       <c r="L34" s="4">
-        <v>23338.10485</v>
+        <v>9.416419293</v>
       </c>
       <c r="M34" s="4">
-        <v>2065946.288</v>
+        <v>798.3760887</v>
       </c>
       <c r="N34" s="4">
-        <v>23.04481548</v>
+        <v>0.05607839943</v>
       </c>
       <c r="O34" s="4">
-        <v>7.779446429</v>
+        <v>0.003138791334</v>
       </c>
       <c r="P34" s="4">
         <v>440.8130952</v>
@@ -5687,25 +5687,25 @@
         <v>49</v>
       </c>
       <c r="C35" s="4">
-        <v>1010.6</v>
+        <v>850.93</v>
       </c>
       <c r="D35" s="4">
         <v>128.0</v>
       </c>
       <c r="E35" s="4">
-        <v>1.002710067E8</v>
+        <v>1.791426862E8</v>
       </c>
       <c r="F35" s="4">
-        <v>3031555.09</v>
+        <v>2553005.3</v>
       </c>
       <c r="G35" s="4">
-        <v>6272.3</v>
+        <v>13941.85</v>
       </c>
       <c r="H35" s="4">
-        <v>56830.0</v>
+        <v>63798.0</v>
       </c>
       <c r="I35" s="4">
-        <v>373.0</v>
+        <v>467.0</v>
       </c>
       <c r="J35" s="4">
         <v>662956.0</v>
@@ -5714,19 +5714,19 @@
         <v>585.0</v>
       </c>
       <c r="L35" s="4">
-        <v>8127.493539</v>
+        <v>85.68953213</v>
       </c>
       <c r="M35" s="4">
-        <v>268823.0741</v>
+        <v>6012.777553</v>
       </c>
       <c r="N35" s="4">
-        <v>16.81581769</v>
+        <v>0.4679467777</v>
       </c>
       <c r="O35" s="4">
-        <v>2.709383378</v>
+        <v>0.02856076859</v>
       </c>
       <c r="P35" s="4">
-        <v>152.3592493</v>
+        <v>136.6124197</v>
       </c>
       <c r="Q35" s="4">
         <v>1133.25812</v>
@@ -5740,25 +5740,25 @@
         <v>49</v>
       </c>
       <c r="C36" s="4">
-        <v>1088.36</v>
+        <v>912.32</v>
       </c>
       <c r="D36" s="4">
         <v>114.0</v>
       </c>
       <c r="E36" s="4">
-        <v>1.085066209E8</v>
+        <v>1.929318924E8</v>
       </c>
       <c r="F36" s="4">
-        <v>3264681.57</v>
+        <v>2737417.67</v>
       </c>
       <c r="G36" s="4">
-        <v>6733.01</v>
+        <v>14906.17</v>
       </c>
       <c r="H36" s="4">
-        <v>61145.0</v>
+        <v>68368.0</v>
       </c>
       <c r="I36" s="4">
-        <v>397.0</v>
+        <v>498.0</v>
       </c>
       <c r="J36" s="4">
         <v>1560757.0</v>
@@ -5767,19 +5767,19 @@
         <v>769.0</v>
       </c>
       <c r="L36" s="4">
-        <v>8223.37927</v>
+        <v>80.40051823</v>
       </c>
       <c r="M36" s="4">
-        <v>273316.4254</v>
+        <v>5666.590197</v>
       </c>
       <c r="N36" s="4">
-        <v>16.95972292</v>
+        <v>0.4378081599</v>
       </c>
       <c r="O36" s="4">
-        <v>2.741460957</v>
+        <v>0.02679569201</v>
       </c>
       <c r="P36" s="4">
-        <v>154.0176322</v>
+        <v>137.2851406</v>
       </c>
       <c r="Q36" s="4">
         <v>2029.592978</v>
@@ -5793,25 +5793,25 @@
         <v>49</v>
       </c>
       <c r="C37" s="4">
-        <v>1270.97</v>
+        <v>1083.55</v>
       </c>
       <c r="D37" s="4">
         <v>89.0</v>
       </c>
       <c r="E37" s="4">
-        <v>1.239679069E8</v>
+        <v>2.305955426E8</v>
       </c>
       <c r="F37" s="4">
-        <v>3812693.53</v>
+        <v>3251216.83</v>
       </c>
       <c r="G37" s="4">
-        <v>8198.44</v>
+        <v>17905.52</v>
       </c>
       <c r="H37" s="4">
-        <v>71162.0</v>
+        <v>78838.0</v>
       </c>
       <c r="I37" s="4">
-        <v>483.0</v>
+        <v>591.0</v>
       </c>
       <c r="J37" s="4">
         <v>198206.0</v>
@@ -5820,19 +5820,19 @@
         <v>424.0</v>
       </c>
       <c r="L37" s="4">
-        <v>7893.775424</v>
+        <v>69.77869695</v>
       </c>
       <c r="M37" s="4">
-        <v>256662.3332</v>
+        <v>4949.11823</v>
       </c>
       <c r="N37" s="4">
-        <v>16.97399586</v>
+        <v>0.3842942256</v>
       </c>
       <c r="O37" s="4">
-        <v>2.631407867</v>
+        <v>0.02325551049</v>
       </c>
       <c r="P37" s="4">
-        <v>147.3333333</v>
+        <v>133.3976311</v>
       </c>
       <c r="Q37" s="4">
         <v>467.4669811</v>
@@ -5846,25 +5846,25 @@
         <v>49</v>
       </c>
       <c r="C38" s="4">
-        <v>1341.08</v>
+        <v>1096.54</v>
       </c>
       <c r="D38" s="4">
         <v>61.0</v>
       </c>
       <c r="E38" s="4">
-        <v>1.314854552E8</v>
+        <v>2.234695748E8</v>
       </c>
       <c r="F38" s="4">
-        <v>4023231.56</v>
+        <v>3290211.38</v>
       </c>
       <c r="G38" s="4">
-        <v>8397.53</v>
+        <v>18309.69</v>
       </c>
       <c r="H38" s="4">
-        <v>74948.0</v>
+        <v>83314.0</v>
       </c>
       <c r="I38" s="4">
-        <v>484.0</v>
+        <v>600.0</v>
       </c>
       <c r="J38" s="4">
         <v>332861.0</v>
@@ -5873,19 +5873,19 @@
         <v>528.0</v>
       </c>
       <c r="L38" s="4">
-        <v>8312.461901</v>
+        <v>65.81949772</v>
       </c>
       <c r="M38" s="4">
-        <v>271664.1636</v>
+        <v>4470.428636</v>
       </c>
       <c r="N38" s="4">
-        <v>17.3502686</v>
+        <v>0.3662787767</v>
       </c>
       <c r="O38" s="4">
-        <v>2.770826446</v>
+        <v>0.02193588913</v>
       </c>
       <c r="P38" s="4">
-        <v>154.8512397</v>
+        <v>138.8566667</v>
       </c>
       <c r="Q38" s="4">
         <v>630.4185606</v>
@@ -5899,25 +5899,25 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>1436.84</v>
+        <v>1227.6</v>
       </c>
       <c r="D39" s="4">
         <v>133.0</v>
       </c>
       <c r="E39" s="4">
-        <v>1.403683357E8</v>
+        <v>2.52695445E8</v>
       </c>
       <c r="F39" s="4">
-        <v>4310427.84</v>
+        <v>3683400.3</v>
       </c>
       <c r="G39" s="4">
-        <v>9009.72</v>
+        <v>20348.26</v>
       </c>
       <c r="H39" s="4">
-        <v>80133.0</v>
+        <v>91368.0</v>
       </c>
       <c r="I39" s="4">
-        <v>522.0</v>
+        <v>716.0</v>
       </c>
       <c r="J39" s="4">
         <v>4143943.0</v>
@@ -5926,19 +5926,19 @@
         <v>767.0</v>
       </c>
       <c r="L39" s="4">
-        <v>8257.524598</v>
+        <v>56.30432785</v>
       </c>
       <c r="M39" s="4">
-        <v>268904.8576</v>
+        <v>3862.693714</v>
       </c>
       <c r="N39" s="4">
-        <v>17.26</v>
+        <v>0.311042789</v>
       </c>
       <c r="O39" s="4">
-        <v>2.75256705</v>
+        <v>0.01876505056</v>
       </c>
       <c r="P39" s="4">
-        <v>153.5114943</v>
+        <v>127.6089385</v>
       </c>
       <c r="Q39" s="4">
         <v>5402.794003</v>
@@ -5952,25 +5952,25 @@
         <v>49</v>
       </c>
       <c r="C40" s="4">
-        <v>1546.89</v>
+        <v>1327.83</v>
       </c>
       <c r="D40" s="4">
         <v>106.0</v>
       </c>
       <c r="E40" s="4">
-        <v>1.531339219E8</v>
+        <v>2.817888963E8</v>
       </c>
       <c r="F40" s="4">
-        <v>4640509.14</v>
+        <v>3983489.92</v>
       </c>
       <c r="G40" s="4">
-        <v>9371.83</v>
+        <v>21264.13</v>
       </c>
       <c r="H40" s="4">
-        <v>85392.0</v>
+        <v>97081.0</v>
       </c>
       <c r="I40" s="4">
-        <v>537.0</v>
+        <v>734.0</v>
       </c>
       <c r="J40" s="4">
         <v>4647553.0</v>
@@ -5979,19 +5979,19 @@
         <v>661.0</v>
       </c>
       <c r="L40" s="4">
-        <v>8641.544022</v>
+        <v>55.90278204</v>
       </c>
       <c r="M40" s="4">
-        <v>285165.5901</v>
+        <v>3954.518165</v>
       </c>
       <c r="N40" s="4">
-        <v>17.45219739</v>
+        <v>0.2984127106</v>
       </c>
       <c r="O40" s="4">
-        <v>2.880614525</v>
+        <v>0.01863426106</v>
       </c>
       <c r="P40" s="4">
-        <v>159.0167598</v>
+        <v>132.2629428</v>
       </c>
       <c r="Q40" s="4">
         <v>7031.093797</v>
@@ -6005,25 +6005,25 @@
         <v>49</v>
       </c>
       <c r="C41" s="4">
-        <v>1626.89</v>
+        <v>1370.86</v>
       </c>
       <c r="D41" s="4">
         <v>155.0</v>
       </c>
       <c r="E41" s="4">
-        <v>1.614789601E8</v>
+        <v>2.876406827E8</v>
       </c>
       <c r="F41" s="4">
-        <v>4880839.39</v>
+        <v>4112837.76</v>
       </c>
       <c r="G41" s="4">
-        <v>9564.86</v>
+        <v>21670.28</v>
       </c>
       <c r="H41" s="4">
-        <v>89169.0</v>
+        <v>101296.0</v>
       </c>
       <c r="I41" s="4">
-        <v>544.0</v>
+        <v>745.0</v>
       </c>
       <c r="J41" s="4">
         <v>3185538.0</v>
@@ -6032,19 +6032,19 @@
         <v>710.0</v>
       </c>
       <c r="L41" s="4">
-        <v>8972.131232</v>
+        <v>54.49956165</v>
       </c>
       <c r="M41" s="4">
-        <v>296836.3238</v>
+        <v>3811.551059</v>
       </c>
       <c r="N41" s="4">
-        <v>17.58246324</v>
+        <v>0.2871547165</v>
       </c>
       <c r="O41" s="4">
-        <v>2.990606618</v>
+        <v>0.01816538202</v>
       </c>
       <c r="P41" s="4">
-        <v>163.9136029</v>
+        <v>135.9677852</v>
       </c>
       <c r="Q41" s="4">
         <v>4486.673239</v>
@@ -6058,25 +6058,25 @@
         <v>49</v>
       </c>
       <c r="C42" s="4">
-        <v>1697.57</v>
+        <v>1440.86</v>
       </c>
       <c r="D42" s="4">
         <v>149.0</v>
       </c>
       <c r="E42" s="4">
-        <v>1.686632483E8</v>
+        <v>3.059143788E8</v>
       </c>
       <c r="F42" s="4">
-        <v>5092929.89</v>
+        <v>4322887.2</v>
       </c>
       <c r="G42" s="4">
-        <v>9883.74</v>
+        <v>22461.1</v>
       </c>
       <c r="H42" s="4">
-        <v>92888.0</v>
+        <v>105874.0</v>
       </c>
       <c r="I42" s="4">
-        <v>557.0</v>
+        <v>765.0</v>
       </c>
       <c r="J42" s="4">
         <v>5887605.0</v>
@@ -6085,19 +6085,19 @@
         <v>1119.0</v>
       </c>
       <c r="L42" s="4">
-        <v>9143.5007</v>
+        <v>53.37318833</v>
       </c>
       <c r="M42" s="4">
-        <v>302806.55</v>
+        <v>3777.018691</v>
       </c>
       <c r="N42" s="4">
-        <v>17.74459605</v>
+        <v>0.2773194083</v>
       </c>
       <c r="O42" s="4">
-        <v>3.047701975</v>
+        <v>0.01778979848</v>
       </c>
       <c r="P42" s="4">
-        <v>166.7648115</v>
+        <v>138.3973856</v>
       </c>
       <c r="Q42" s="4">
         <v>5261.487936</v>
@@ -6111,25 +6111,25 @@
         <v>49</v>
       </c>
       <c r="C43" s="4">
-        <v>1830.76</v>
+        <v>1553.14</v>
       </c>
       <c r="D43" s="4">
         <v>163.0</v>
       </c>
       <c r="E43" s="4">
-        <v>1.889998475E8</v>
+        <v>3.367043352E8</v>
       </c>
       <c r="F43" s="4">
-        <v>5492132.54</v>
+        <v>4659394.92</v>
       </c>
       <c r="G43" s="4">
-        <v>10198.66</v>
+        <v>23127.75</v>
       </c>
       <c r="H43" s="4">
-        <v>99389.0</v>
+        <v>112897.0</v>
       </c>
       <c r="I43" s="4">
-        <v>565.0</v>
+        <v>774.0</v>
       </c>
       <c r="J43" s="4">
         <v>3079503.0</v>
@@ -6138,19 +6138,19 @@
         <v>949.0</v>
       </c>
       <c r="L43" s="4">
-        <v>9720.588566</v>
+        <v>53.32196673</v>
       </c>
       <c r="M43" s="4">
-        <v>334513.0044</v>
+        <v>3853.233664</v>
       </c>
       <c r="N43" s="4">
-        <v>18.05072566</v>
+        <v>0.2646732327</v>
       </c>
       <c r="O43" s="4">
-        <v>3.240283186</v>
+        <v>0.01777408458</v>
       </c>
       <c r="P43" s="4">
-        <v>175.9097345</v>
+        <v>145.8617571</v>
       </c>
       <c r="Q43" s="4">
         <v>3244.997893</v>
@@ -6164,25 +6164,25 @@
         <v>49</v>
       </c>
       <c r="C44" s="4">
-        <v>1940.3</v>
+        <v>1650.65</v>
       </c>
       <c r="D44" s="4">
         <v>143.0</v>
       </c>
       <c r="E44" s="4">
-        <v>2.041920473E8</v>
+        <v>3.696120063E8</v>
       </c>
       <c r="F44" s="4">
-        <v>5820603.11</v>
+        <v>4951810.37</v>
       </c>
       <c r="G44" s="4">
-        <v>10678.79</v>
+        <v>24134.44</v>
       </c>
       <c r="H44" s="4">
-        <v>105291.0</v>
+        <v>118872.0</v>
       </c>
       <c r="I44" s="4">
-        <v>589.0</v>
+        <v>800.0</v>
       </c>
       <c r="J44" s="4">
         <v>539967.0</v>
@@ -6191,19 +6191,19 @@
         <v>730.0</v>
       </c>
       <c r="L44" s="4">
-        <v>9882.178455</v>
+        <v>52.07082376</v>
       </c>
       <c r="M44" s="4">
-        <v>346675.8019</v>
+        <v>3886.659666</v>
       </c>
       <c r="N44" s="4">
-        <v>18.13037351</v>
+        <v>0.2537860051</v>
       </c>
       <c r="O44" s="4">
-        <v>3.294227504</v>
+        <v>0.01735743068</v>
       </c>
       <c r="P44" s="4">
-        <v>178.762309</v>
+        <v>148.59</v>
       </c>
       <c r="Q44" s="4">
         <v>739.6808219</v>
@@ -6217,25 +6217,25 @@
         <v>49</v>
       </c>
       <c r="C45" s="4">
-        <v>1994.56</v>
+        <v>1696.35</v>
       </c>
       <c r="D45" s="4">
         <v>96.0</v>
       </c>
       <c r="E45" s="4">
-        <v>2.079206204E8</v>
+        <v>3.736008126E8</v>
       </c>
       <c r="F45" s="4">
-        <v>5983293.27</v>
+        <v>5088771.53</v>
       </c>
       <c r="G45" s="4">
-        <v>11268.72</v>
+        <v>25193.37</v>
       </c>
       <c r="H45" s="4">
-        <v>108346.0</v>
+        <v>122058.0</v>
       </c>
       <c r="I45" s="4">
-        <v>629.0</v>
+        <v>843.0</v>
       </c>
       <c r="J45" s="4">
         <v>579919.0</v>
@@ -6244,19 +6244,19 @@
         <v>486.0</v>
       </c>
       <c r="L45" s="4">
-        <v>9512.389936</v>
+        <v>49.45601606</v>
       </c>
       <c r="M45" s="4">
-        <v>330557.4251</v>
+        <v>3630.897493</v>
       </c>
       <c r="N45" s="4">
-        <v>17.91529412</v>
+        <v>0.2448456772</v>
       </c>
       <c r="O45" s="4">
-        <v>3.17100159</v>
+        <v>0.0164862408</v>
       </c>
       <c r="P45" s="4">
-        <v>172.2511924</v>
+        <v>144.7900356</v>
       </c>
       <c r="Q45" s="4">
         <v>1193.248971</v>
@@ -6270,25 +6270,25 @@
         <v>49</v>
       </c>
       <c r="C46" s="4">
-        <v>2132.55</v>
+        <v>1776.76</v>
       </c>
       <c r="D46" s="4">
         <v>91.0</v>
       </c>
       <c r="E46" s="4">
-        <v>2.233105955E8</v>
+        <v>3.876466443E8</v>
       </c>
       <c r="F46" s="4">
-        <v>6397183.45</v>
+        <v>5330279.04</v>
       </c>
       <c r="G46" s="4">
-        <v>11923.36</v>
+        <v>26268.01</v>
       </c>
       <c r="H46" s="4">
-        <v>114791.0</v>
+        <v>128633.0</v>
       </c>
       <c r="I46" s="4">
-        <v>665.0</v>
+        <v>881.0</v>
       </c>
       <c r="J46" s="4">
         <v>927249.0</v>
@@ -6297,19 +6297,19 @@
         <v>420.0</v>
       </c>
       <c r="L46" s="4">
-        <v>9619.824737</v>
+        <v>47.03505304</v>
       </c>
       <c r="M46" s="4">
-        <v>335805.4068</v>
+        <v>3420.642772</v>
       </c>
       <c r="N46" s="4">
-        <v>17.92986466</v>
+        <v>0.2317922259</v>
       </c>
       <c r="O46" s="4">
-        <v>3.206842105</v>
+        <v>0.01567835384</v>
       </c>
       <c r="P46" s="4">
-        <v>172.6180451</v>
+        <v>146.0079455</v>
       </c>
       <c r="Q46" s="4">
         <v>2207.735714</v>
@@ -6323,25 +6323,25 @@
         <v>49</v>
       </c>
       <c r="C47" s="4">
-        <v>2173.92</v>
+        <v>1819.53</v>
       </c>
       <c r="D47" s="4">
         <v>126.0</v>
       </c>
       <c r="E47" s="4">
-        <v>2.28103196E8</v>
+        <v>3.978830079E8</v>
       </c>
       <c r="F47" s="4">
-        <v>6521372.24</v>
+        <v>5458646.49</v>
       </c>
       <c r="G47" s="4">
-        <v>12201.49</v>
+        <v>26829.59</v>
       </c>
       <c r="H47" s="4">
-        <v>117060.0</v>
+        <v>131351.0</v>
       </c>
       <c r="I47" s="4">
-        <v>683.0</v>
+        <v>900.0</v>
       </c>
       <c r="J47" s="4">
         <v>274943.0</v>
@@ -6350,19 +6350,19 @@
         <v>485.0</v>
       </c>
       <c r="L47" s="4">
-        <v>9548.129195</v>
+        <v>46.175231</v>
       </c>
       <c r="M47" s="4">
-        <v>333972.4686</v>
+        <v>3365.731749</v>
       </c>
       <c r="N47" s="4">
-        <v>17.86455344</v>
+        <v>0.2269541576</v>
       </c>
       <c r="O47" s="4">
-        <v>3.182898975</v>
+        <v>0.01539158438</v>
       </c>
       <c r="P47" s="4">
-        <v>171.3909224</v>
+        <v>145.9455556</v>
       </c>
       <c r="Q47" s="4">
         <v>566.8927835</v>
@@ -6376,25 +6376,25 @@
         <v>49</v>
       </c>
       <c r="C48" s="4">
-        <v>2215.98</v>
+        <v>1851.5</v>
       </c>
       <c r="D48" s="4">
         <v>102.0</v>
       </c>
       <c r="E48" s="4">
-        <v>2.339251696E8</v>
+        <v>4.09559709E8</v>
       </c>
       <c r="F48" s="4">
-        <v>6647563.45</v>
+        <v>5554571.44</v>
       </c>
       <c r="G48" s="4">
-        <v>12316.07</v>
+        <v>27095.89</v>
       </c>
       <c r="H48" s="4">
-        <v>119246.0</v>
+        <v>133578.0</v>
       </c>
       <c r="I48" s="4">
-        <v>687.0</v>
+        <v>904.0</v>
       </c>
       <c r="J48" s="4">
         <v>463384.0</v>
@@ -6403,19 +6403,19 @@
         <v>342.0</v>
       </c>
       <c r="L48" s="4">
-        <v>9676.220451</v>
+        <v>45.99887282</v>
       </c>
       <c r="M48" s="4">
-        <v>340502.4302</v>
+        <v>3391.672098</v>
       </c>
       <c r="N48" s="4">
-        <v>17.92732169</v>
+        <v>0.22438822</v>
       </c>
       <c r="O48" s="4">
-        <v>3.22558952</v>
+        <v>0.0153327604</v>
       </c>
       <c r="P48" s="4">
-        <v>173.5749636</v>
+        <v>147.7632743</v>
       </c>
       <c r="Q48" s="4">
         <v>1354.923977</v>
@@ -6429,25 +6429,25 @@
         <v>49</v>
       </c>
       <c r="C49" s="4">
-        <v>2250.26</v>
+        <v>1881.44</v>
       </c>
       <c r="D49" s="4">
         <v>72.0</v>
       </c>
       <c r="E49" s="4">
-        <v>2.375778013E8</v>
+        <v>4.174513319E8</v>
       </c>
       <c r="F49" s="4">
-        <v>6750355.59</v>
+        <v>5644202.24</v>
       </c>
       <c r="G49" s="4">
-        <v>12502.3</v>
+        <v>27540.7</v>
       </c>
       <c r="H49" s="4">
-        <v>121248.0</v>
+        <v>135788.0</v>
       </c>
       <c r="I49" s="4">
-        <v>697.0</v>
+        <v>915.0</v>
       </c>
       <c r="J49" s="4">
         <v>194219.0</v>
@@ -6456,19 +6456,19 @@
         <v>474.0</v>
       </c>
       <c r="L49" s="4">
-        <v>9684.871722</v>
+        <v>45.42763012</v>
       </c>
       <c r="M49" s="4">
-        <v>340857.6776</v>
+        <v>3359.876895</v>
       </c>
       <c r="N49" s="4">
-        <v>17.93730273</v>
+        <v>0.2216626335</v>
       </c>
       <c r="O49" s="4">
-        <v>3.228493544</v>
+        <v>0.0151428593</v>
       </c>
       <c r="P49" s="4">
-        <v>173.9569584</v>
+        <v>148.4021858</v>
       </c>
       <c r="Q49" s="4">
         <v>409.7447257</v>
@@ -6482,25 +6482,25 @@
         <v>49</v>
       </c>
       <c r="C50" s="4">
-        <v>2269.82</v>
+        <v>1894.08</v>
       </c>
       <c r="D50" s="4">
         <v>82.0</v>
       </c>
       <c r="E50" s="4">
-        <v>2.403713499E8</v>
+        <v>4.198349211E8</v>
       </c>
       <c r="F50" s="4">
-        <v>6809176.37</v>
+        <v>5682117.96</v>
       </c>
       <c r="G50" s="4">
-        <v>12558.58</v>
+        <v>27696.22</v>
       </c>
       <c r="H50" s="4">
-        <v>122211.0</v>
+        <v>136791.0</v>
       </c>
       <c r="I50" s="4">
-        <v>699.0</v>
+        <v>918.0</v>
       </c>
       <c r="J50" s="4">
         <v>164998.0</v>
@@ -6509,19 +6509,19 @@
         <v>469.0</v>
       </c>
       <c r="L50" s="4">
-        <v>9741.310973</v>
+        <v>45.24910981</v>
       </c>
       <c r="M50" s="4">
-        <v>343878.8983</v>
+        <v>3343.323138</v>
       </c>
       <c r="N50" s="4">
-        <v>17.96649499</v>
+        <v>0.22055672</v>
       </c>
       <c r="O50" s="4">
-        <v>3.247238913</v>
+        <v>0.01508336056</v>
       </c>
       <c r="P50" s="4">
-        <v>174.8369099</v>
+        <v>149.0098039</v>
       </c>
       <c r="Q50" s="4">
         <v>351.8081023</v>
@@ -6535,25 +6535,25 @@
         <v>49</v>
       </c>
       <c r="C51" s="4">
-        <v>2297.16</v>
+        <v>1976.32</v>
       </c>
       <c r="D51" s="4">
         <v>62.0</v>
       </c>
       <c r="E51" s="4">
-        <v>2.446493856E8</v>
+        <v>4.684346197E8</v>
       </c>
       <c r="F51" s="4">
-        <v>6891405.71</v>
+        <v>5928734.02</v>
       </c>
       <c r="G51" s="4">
-        <v>12594.47</v>
+        <v>27968.56</v>
       </c>
       <c r="H51" s="4">
-        <v>123546.0</v>
+        <v>138356.0</v>
       </c>
       <c r="I51" s="4">
-        <v>701.0</v>
+        <v>921.0</v>
       </c>
       <c r="J51" s="4">
         <v>4294009.0</v>
@@ -6562,19 +6562,19 @@
         <v>487.0</v>
       </c>
       <c r="L51" s="4">
-        <v>9830.82127</v>
+        <v>46.52692378</v>
       </c>
       <c r="M51" s="4">
-        <v>349000.55</v>
+        <v>3676.134192</v>
       </c>
       <c r="N51" s="4">
-        <v>17.96643367</v>
+        <v>0.219488858</v>
       </c>
       <c r="O51" s="4">
-        <v>3.276975749</v>
+        <v>0.01550956573</v>
       </c>
       <c r="P51" s="4">
-        <v>176.2425107</v>
+        <v>150.2236699</v>
       </c>
       <c r="Q51" s="4">
         <v>8817.26694</v>
@@ -6588,25 +6588,25 @@
         <v>49</v>
       </c>
       <c r="C52" s="4">
-        <v>2155.72</v>
+        <v>1792.91</v>
       </c>
       <c r="D52" s="4">
         <v>56.0</v>
       </c>
       <c r="E52" s="4">
-        <v>2.367182576E8</v>
+        <v>4.311164229E8</v>
       </c>
       <c r="F52" s="4">
-        <v>6467177.68</v>
+        <v>5378394.55</v>
       </c>
       <c r="G52" s="4">
-        <v>13011.55</v>
+        <v>26311.83</v>
       </c>
       <c r="H52" s="4">
-        <v>115580.0</v>
+        <v>129254.0</v>
       </c>
       <c r="I52" s="4">
-        <v>704.0</v>
+        <v>930.0</v>
       </c>
       <c r="J52" s="4">
         <v>3406555.0</v>
@@ -6615,19 +6615,19 @@
         <v>636.0</v>
       </c>
       <c r="L52" s="4">
-        <v>9186.331932</v>
+        <v>44.74306363</v>
       </c>
       <c r="M52" s="4">
-        <v>336247.525</v>
+        <v>3586.473503</v>
       </c>
       <c r="N52" s="4">
-        <v>18.48231534</v>
+        <v>0.2188890891</v>
       </c>
       <c r="O52" s="4">
-        <v>3.062102273</v>
+        <v>0.01491528475</v>
       </c>
       <c r="P52" s="4">
-        <v>164.1761364</v>
+        <v>138.9827957</v>
       </c>
       <c r="Q52" s="4">
         <v>5356.218553</v>
@@ -6641,25 +6641,25 @@
         <v>49</v>
       </c>
       <c r="C53" s="4">
-        <v>2155.54</v>
+        <v>1798.96</v>
       </c>
       <c r="D53" s="4">
         <v>47.0</v>
       </c>
       <c r="E53" s="4">
-        <v>2.355964172E8</v>
+        <v>4.31127693E8</v>
       </c>
       <c r="F53" s="4">
-        <v>6466405.39</v>
+        <v>5396797.74</v>
       </c>
       <c r="G53" s="4">
-        <v>13004.39</v>
+        <v>26217.54</v>
       </c>
       <c r="H53" s="4">
-        <v>116132.0</v>
+        <v>129829.0</v>
       </c>
       <c r="I53" s="4">
-        <v>709.0</v>
+        <v>931.0</v>
       </c>
       <c r="J53" s="4">
         <v>5213331.0</v>
@@ -6668,19 +6668,19 @@
         <v>596.0</v>
       </c>
       <c r="L53" s="4">
-        <v>9120.458942</v>
+        <v>44.64930971</v>
       </c>
       <c r="M53" s="4">
-        <v>332293.9593</v>
+        <v>3566.847382</v>
       </c>
       <c r="N53" s="4">
-        <v>18.34187588</v>
+        <v>0.216905491</v>
       </c>
       <c r="O53" s="4">
-        <v>3.040253879</v>
+        <v>0.01488333009</v>
       </c>
       <c r="P53" s="4">
-        <v>163.796897</v>
+        <v>139.4511278</v>
       </c>
       <c r="Q53" s="4">
         <v>8747.199664</v>
@@ -6694,25 +6694,25 @@
         <v>49</v>
       </c>
       <c r="C54" s="4">
-        <v>2164.2</v>
+        <v>1810.54</v>
       </c>
       <c r="D54" s="4">
         <v>39.0</v>
       </c>
       <c r="E54" s="4">
-        <v>2.371549379E8</v>
+        <v>4.363527585E8</v>
       </c>
       <c r="F54" s="4">
-        <v>6492409.88</v>
+        <v>5431522.76</v>
       </c>
       <c r="G54" s="4">
-        <v>13011.27</v>
+        <v>26342.17</v>
       </c>
       <c r="H54" s="4">
-        <v>116536.0</v>
+        <v>130516.0</v>
       </c>
       <c r="I54" s="4">
-        <v>709.0</v>
+        <v>936.0</v>
       </c>
       <c r="J54" s="4">
         <v>2147747.0</v>
@@ -6721,19 +6721,19 @@
         <v>261.0</v>
       </c>
       <c r="L54" s="4">
-        <v>9157.136643</v>
+        <v>44.46128392</v>
       </c>
       <c r="M54" s="4">
-        <v>334492.155</v>
+        <v>3571.890378</v>
       </c>
       <c r="N54" s="4">
-        <v>18.35157969</v>
+        <v>0.215631371</v>
       </c>
       <c r="O54" s="4">
-        <v>3.052468265</v>
+        <v>0.0148206933</v>
       </c>
       <c r="P54" s="4">
-        <v>164.3667137</v>
+        <v>139.4401709</v>
       </c>
       <c r="Q54" s="4">
         <v>8228.915709</v>
@@ -6747,25 +6747,25 @@
         <v>49</v>
       </c>
       <c r="C55" s="4">
-        <v>2190.27</v>
+        <v>1936.27</v>
       </c>
       <c r="D55" s="4">
         <v>23.0</v>
       </c>
       <c r="E55" s="4">
-        <v>2.40221183E8</v>
+        <v>4.976348219E8</v>
       </c>
       <c r="F55" s="4">
-        <v>6570700.04</v>
+        <v>5808664.94</v>
       </c>
       <c r="G55" s="4">
-        <v>13255.4</v>
+        <v>26875.97</v>
       </c>
       <c r="H55" s="4">
-        <v>118183.0</v>
+        <v>172787.0</v>
       </c>
       <c r="I55" s="4">
-        <v>724.0</v>
+        <v>954.0</v>
       </c>
       <c r="J55" s="4">
         <v>2817601.0</v>
@@ -6774,19 +6774,19 @@
         <v>258.0</v>
       </c>
       <c r="L55" s="4">
-        <v>9075.552541</v>
+        <v>35.23845727</v>
       </c>
       <c r="M55" s="4">
-        <v>331797.2141</v>
+        <v>3018.918045</v>
       </c>
       <c r="N55" s="4">
-        <v>18.30856354</v>
+        <v>0.1630439576</v>
       </c>
       <c r="O55" s="4">
-        <v>3.025234807</v>
+        <v>0.01174644576</v>
       </c>
       <c r="P55" s="4">
-        <v>163.2361878</v>
+        <v>181.1184486</v>
       </c>
       <c r="Q55" s="4">
         <v>10920.93411</v>
@@ -6800,25 +6800,25 @@
         <v>49</v>
       </c>
       <c r="C56" s="4">
-        <v>2194.32</v>
+        <v>1946.72</v>
       </c>
       <c r="D56" s="4">
         <v>13.0</v>
       </c>
       <c r="E56" s="4">
-        <v>2.406710178E8</v>
+        <v>4.991598136E8</v>
       </c>
       <c r="F56" s="4">
-        <v>6582931.23</v>
+        <v>5839915.89</v>
       </c>
       <c r="G56" s="4">
-        <v>13360.83</v>
+        <v>27034.92</v>
       </c>
       <c r="H56" s="4">
-        <v>118485.0</v>
+        <v>173620.0</v>
       </c>
       <c r="I56" s="4">
-        <v>740.0</v>
+        <v>972.0</v>
       </c>
       <c r="J56" s="4">
         <v>3749364.0</v>
@@ -6827,19 +6827,19 @@
         <v>247.0</v>
       </c>
       <c r="L56" s="4">
-        <v>8895.853014</v>
+        <v>34.60513719</v>
       </c>
       <c r="M56" s="4">
-        <v>325231.1051</v>
+        <v>2957.832639</v>
       </c>
       <c r="N56" s="4">
-        <v>18.05517568</v>
+        <v>0.1601987312</v>
       </c>
       <c r="O56" s="4">
-        <v>2.965297297</v>
+        <v>0.0115355279</v>
       </c>
       <c r="P56" s="4">
-        <v>160.1148649</v>
+        <v>178.6213992</v>
       </c>
       <c r="Q56" s="4">
         <v>15179.61134</v>
@@ -6853,25 +6853,25 @@
         <v>49</v>
       </c>
       <c r="C57" s="4">
-        <v>2205.9</v>
+        <v>1958.14</v>
       </c>
       <c r="D57" s="4">
         <v>32.0</v>
       </c>
       <c r="E57" s="4">
-        <v>2.437447053E8</v>
+        <v>5.072075349E8</v>
       </c>
       <c r="F57" s="4">
-        <v>6617745.98</v>
+        <v>5874132.26</v>
       </c>
       <c r="G57" s="4">
-        <v>13377.95</v>
+        <v>27075.23</v>
       </c>
       <c r="H57" s="4">
-        <v>119015.0</v>
+        <v>174223.0</v>
       </c>
       <c r="I57" s="4">
-        <v>740.0</v>
+        <v>972.0</v>
       </c>
       <c r="J57" s="4">
         <v>825260.0</v>
@@ -6880,19 +6880,19 @@
         <v>256.0</v>
       </c>
       <c r="L57" s="4">
-        <v>8942.899973</v>
+        <v>34.68741754</v>
       </c>
       <c r="M57" s="4">
-        <v>329384.7369</v>
+        <v>2995.118047</v>
       </c>
       <c r="N57" s="4">
-        <v>18.07831081</v>
+        <v>0.1598823054</v>
       </c>
       <c r="O57" s="4">
-        <v>2.980945946</v>
+        <v>0.01156303889</v>
       </c>
       <c r="P57" s="4">
-        <v>160.8310811</v>
+        <v>179.2417695</v>
       </c>
       <c r="Q57" s="4">
         <v>3223.671875</v>
@@ -6906,25 +6906,25 @@
         <v>49</v>
       </c>
       <c r="C58" s="4">
-        <v>2243.78</v>
+        <v>1990.52</v>
       </c>
       <c r="D58" s="4">
         <v>31.0</v>
       </c>
       <c r="E58" s="4">
-        <v>2.510058774E8</v>
+        <v>5.217676465E8</v>
       </c>
       <c r="F58" s="4">
-        <v>6731388.58</v>
+        <v>5971169.53</v>
       </c>
       <c r="G58" s="4">
-        <v>13546.72</v>
+        <v>27405.59</v>
       </c>
       <c r="H58" s="4">
-        <v>121254.0</v>
+        <v>176593.0</v>
       </c>
       <c r="I58" s="4">
-        <v>748.0</v>
+        <v>981.0</v>
       </c>
       <c r="J58" s="4">
         <v>9017230.0</v>
@@ -6933,19 +6933,19 @@
         <v>264.0</v>
       </c>
       <c r="L58" s="4">
-        <v>8999.182594</v>
+        <v>34.46806551</v>
       </c>
       <c r="M58" s="4">
-        <v>335569.3548</v>
+        <v>3011.859123</v>
       </c>
       <c r="N58" s="4">
-        <v>18.11058824</v>
+        <v>0.1581964248</v>
       </c>
       <c r="O58" s="4">
-        <v>2.999705882</v>
+        <v>0.01149010649</v>
       </c>
       <c r="P58" s="4">
-        <v>162.1042781</v>
+        <v>180.0132518</v>
       </c>
       <c r="Q58" s="4">
         <v>34156.17424</v>
@@ -6959,25 +6959,25 @@
         <v>49</v>
       </c>
       <c r="C59" s="4">
-        <v>2257.56</v>
+        <v>1992.64</v>
       </c>
       <c r="D59" s="4">
         <v>32.0</v>
       </c>
       <c r="E59" s="4">
-        <v>2.528929062E8</v>
+        <v>5.241463538E8</v>
       </c>
       <c r="F59" s="4">
-        <v>6772664.53</v>
+        <v>5977444.82</v>
       </c>
       <c r="G59" s="4">
-        <v>13609.29</v>
+        <v>27488.14</v>
       </c>
       <c r="H59" s="4">
-        <v>122052.0</v>
+        <v>179524.0</v>
       </c>
       <c r="I59" s="4">
-        <v>752.0</v>
+        <v>983.0</v>
       </c>
       <c r="J59" s="4">
         <v>2929413.0</v>
@@ -6986,19 +6986,19 @@
         <v>481.0</v>
       </c>
       <c r="L59" s="4">
-        <v>9006.202832</v>
+        <v>33.87189868</v>
       </c>
       <c r="M59" s="4">
-        <v>336293.7582</v>
+        <v>2970.137362</v>
       </c>
       <c r="N59" s="4">
-        <v>18.09746011</v>
+        <v>0.1557647993</v>
       </c>
       <c r="O59" s="4">
-        <v>3.002074468</v>
+        <v>0.01129153045</v>
       </c>
       <c r="P59" s="4">
-        <v>162.3031915</v>
+        <v>182.6286877</v>
       </c>
       <c r="Q59" s="4">
         <v>6090.255717</v>
@@ -7012,25 +7012,25 @@
         <v>49</v>
       </c>
       <c r="C60" s="4">
-        <v>2280.5</v>
+        <v>2010.51</v>
       </c>
       <c r="D60" s="4">
         <v>46.0</v>
       </c>
       <c r="E60" s="4">
-        <v>2.565626219E8</v>
+        <v>5.320356772E8</v>
       </c>
       <c r="F60" s="4">
-        <v>6841366.44</v>
+        <v>6030986.19</v>
       </c>
       <c r="G60" s="4">
-        <v>13638.22</v>
+        <v>27554.59</v>
       </c>
       <c r="H60" s="4">
-        <v>123055.0</v>
+        <v>180486.0</v>
       </c>
       <c r="I60" s="4">
-        <v>752.0</v>
+        <v>983.0</v>
       </c>
       <c r="J60" s="4">
         <v>66900.0</v>
@@ -7039,19 +7039,19 @@
         <v>269.0</v>
       </c>
       <c r="L60" s="4">
-        <v>9097.561755</v>
+        <v>33.99314104</v>
       </c>
       <c r="M60" s="4">
-        <v>341173.6994</v>
+        <v>2998.773872</v>
       </c>
       <c r="N60" s="4">
-        <v>18.13593085</v>
+        <v>0.1553091044</v>
       </c>
       <c r="O60" s="4">
-        <v>3.032579787</v>
+        <v>0.01133206872</v>
       </c>
       <c r="P60" s="4">
-        <v>163.6369681</v>
+        <v>183.6073245</v>
       </c>
       <c r="Q60" s="4">
         <v>248.6988848</v>
@@ -7065,25 +7065,25 @@
         <v>49</v>
       </c>
       <c r="C61" s="4">
-        <v>2289.8</v>
+        <v>2023.77</v>
       </c>
       <c r="D61" s="4">
         <v>37.0</v>
       </c>
       <c r="E61" s="4">
-        <v>2.57230435E8</v>
+        <v>5.342285278E8</v>
       </c>
       <c r="F61" s="4">
-        <v>6869366.11</v>
+        <v>6070755.39</v>
       </c>
       <c r="G61" s="4">
-        <v>13736.93</v>
+        <v>27762.57</v>
       </c>
       <c r="H61" s="4">
-        <v>123620.0</v>
+        <v>181279.0</v>
       </c>
       <c r="I61" s="4">
-        <v>757.0</v>
+        <v>989.0</v>
       </c>
       <c r="J61" s="4">
         <v>111564.0</v>
@@ -7092,19 +7092,19 @@
         <v>206.0</v>
       </c>
       <c r="L61" s="4">
-        <v>9074.459855</v>
+        <v>33.86093497</v>
       </c>
       <c r="M61" s="4">
-        <v>339802.424</v>
+        <v>2979.773731</v>
       </c>
       <c r="N61" s="4">
-        <v>18.14653897</v>
+        <v>0.1548516646</v>
       </c>
       <c r="O61" s="4">
-        <v>3.024834875</v>
+        <v>0.01128800948</v>
       </c>
       <c r="P61" s="4">
-        <v>163.3025099</v>
+        <v>183.2952477</v>
       </c>
       <c r="Q61" s="4">
         <v>541.5728155</v>
@@ -7118,25 +7118,25 @@
         <v>49</v>
       </c>
       <c r="C62" s="4">
-        <v>2308.61</v>
+        <v>2040.3</v>
       </c>
       <c r="D62" s="4">
         <v>47.0</v>
       </c>
       <c r="E62" s="4">
-        <v>2.599734357E8</v>
+        <v>5.398182126E8</v>
       </c>
       <c r="F62" s="4">
-        <v>6925758.61</v>
+        <v>6120370.14</v>
       </c>
       <c r="G62" s="4">
-        <v>13770.78</v>
+        <v>27861.9</v>
       </c>
       <c r="H62" s="4">
-        <v>124556.0</v>
+        <v>182296.0</v>
       </c>
       <c r="I62" s="4">
-        <v>758.0</v>
+        <v>990.0</v>
       </c>
       <c r="J62" s="4">
         <v>16451.0</v>
@@ -7145,19 +7145,19 @@
         <v>144.0</v>
       </c>
       <c r="L62" s="4">
-        <v>9136.88471</v>
+        <v>33.91293315</v>
       </c>
       <c r="M62" s="4">
-        <v>342972.8703</v>
+        <v>2991.129382</v>
       </c>
       <c r="N62" s="4">
-        <v>18.16725594</v>
+        <v>0.1543826158</v>
       </c>
       <c r="O62" s="4">
-        <v>3.045659631</v>
+        <v>0.0113052897</v>
       </c>
       <c r="P62" s="4">
-        <v>164.3218997</v>
+        <v>184.1373737</v>
       </c>
       <c r="Q62" s="4">
         <v>114.2430556</v>
@@ -7171,25 +7171,25 @@
         <v>49</v>
       </c>
       <c r="C63" s="4">
-        <v>2314.03</v>
+        <v>2043.94</v>
       </c>
       <c r="D63" s="4">
         <v>46.0</v>
       </c>
       <c r="E63" s="4">
-        <v>2.605712031E8</v>
+        <v>5.415266348E8</v>
       </c>
       <c r="F63" s="4">
-        <v>6942012.08</v>
+        <v>6131268.4</v>
       </c>
       <c r="G63" s="4">
-        <v>13772.79</v>
+        <v>27898.73</v>
       </c>
       <c r="H63" s="4">
-        <v>124681.0</v>
+        <v>182421.0</v>
       </c>
       <c r="I63" s="4">
-        <v>758.0</v>
+        <v>990.0</v>
       </c>
       <c r="J63" s="4">
         <v>1890136.0</v>
@@ -7198,19 +7198,19 @@
         <v>432.0</v>
       </c>
       <c r="L63" s="4">
-        <v>9158.327282</v>
+        <v>33.95004086</v>
       </c>
       <c r="M63" s="4">
-        <v>343761.4817</v>
+        <v>2998.539646</v>
       </c>
       <c r="N63" s="4">
-        <v>18.16990765</v>
+        <v>0.1544807635</v>
       </c>
       <c r="O63" s="4">
-        <v>3.052810026</v>
+        <v>0.01131769839</v>
       </c>
       <c r="P63" s="4">
-        <v>164.4868074</v>
+        <v>184.2636364</v>
       </c>
       <c r="Q63" s="4">
         <v>4375.314815</v>
@@ -7224,25 +7224,25 @@
         <v>49</v>
       </c>
       <c r="C64" s="4">
-        <v>2342.56</v>
+        <v>2081.83</v>
       </c>
       <c r="D64" s="4">
         <v>34.0</v>
       </c>
       <c r="E64" s="4">
-        <v>2.652600962E8</v>
+        <v>5.585527217E8</v>
       </c>
       <c r="F64" s="4">
-        <v>7027598.31</v>
+        <v>6245266.14</v>
       </c>
       <c r="G64" s="4">
-        <v>13844.93</v>
+        <v>28121.48</v>
       </c>
       <c r="H64" s="4">
-        <v>125882.0</v>
+        <v>183829.0</v>
       </c>
       <c r="I64" s="4">
-        <v>760.0</v>
+        <v>992.0</v>
       </c>
       <c r="J64" s="4">
         <v>383119.0</v>
@@ -7251,19 +7251,19 @@
         <v>543.0</v>
       </c>
       <c r="L64" s="4">
-        <v>9246.839882</v>
+        <v>34.24721447</v>
       </c>
       <c r="M64" s="4">
-        <v>349026.4424</v>
+        <v>3062.939902</v>
       </c>
       <c r="N64" s="4">
-        <v>18.21701316</v>
+        <v>0.1542099785</v>
       </c>
       <c r="O64" s="4">
-        <v>3.082315789</v>
+        <v>0.01141614735</v>
       </c>
       <c r="P64" s="4">
-        <v>165.6342105</v>
+        <v>185.3114919</v>
       </c>
       <c r="Q64" s="4">
         <v>705.5598527</v>
@@ -7277,25 +7277,25 @@
         <v>49</v>
       </c>
       <c r="C65" s="4">
-        <v>2333.07</v>
+        <v>2096.42</v>
       </c>
       <c r="D65" s="4">
         <v>41.0</v>
       </c>
       <c r="E65" s="4">
-        <v>2.633553047E8</v>
+        <v>5.633242061E8</v>
       </c>
       <c r="F65" s="4">
-        <v>6999163.32</v>
+        <v>6288859.91</v>
       </c>
       <c r="G65" s="4">
-        <v>13845.24</v>
+        <v>28179.51</v>
       </c>
       <c r="H65" s="4">
-        <v>126481.0</v>
+        <v>184619.0</v>
       </c>
       <c r="I65" s="4">
-        <v>761.0</v>
+        <v>993.0</v>
       </c>
       <c r="J65" s="4">
         <v>2.1752537E7</v>
@@ -7304,19 +7304,19 @@
         <v>431.0</v>
       </c>
       <c r="L65" s="4">
-        <v>9197.323679</v>
+        <v>34.3041196</v>
       </c>
       <c r="M65" s="4">
-        <v>346064.7894</v>
+        <v>3072.78922</v>
       </c>
       <c r="N65" s="4">
-        <v>18.19348226</v>
+        <v>0.1537120074</v>
       </c>
       <c r="O65" s="4">
-        <v>3.065795007</v>
+        <v>0.01143543399</v>
       </c>
       <c r="P65" s="4">
-        <v>166.2036794</v>
+        <v>185.9204431</v>
       </c>
       <c r="Q65" s="4">
         <v>50469.92343</v>
@@ -7330,25 +7330,25 @@
         <v>49</v>
       </c>
       <c r="C66" s="4">
-        <v>2465.71</v>
+        <v>2174.67</v>
       </c>
       <c r="D66" s="4">
         <v>40.0</v>
       </c>
       <c r="E66" s="4">
-        <v>2.859007531E8</v>
+        <v>5.803426029E8</v>
       </c>
       <c r="F66" s="4">
-        <v>7397199.91</v>
+        <v>6523778.26</v>
       </c>
       <c r="G66" s="4">
-        <v>14590.96</v>
+        <v>28826.63</v>
       </c>
       <c r="H66" s="4">
-        <v>133479.0</v>
+        <v>190399.0</v>
       </c>
       <c r="I66" s="4">
-        <v>794.0</v>
+        <v>1017.0</v>
       </c>
       <c r="J66" s="4">
         <v>7217870.0</v>
@@ -7357,19 +7357,19 @@
         <v>210.0</v>
       </c>
       <c r="L66" s="4">
-        <v>9316.372683</v>
+        <v>33.69097467</v>
       </c>
       <c r="M66" s="4">
-        <v>360076.5153</v>
+        <v>2997.083462</v>
       </c>
       <c r="N66" s="4">
-        <v>18.37652393</v>
+        <v>0.1488703666</v>
       </c>
       <c r="O66" s="4">
-        <v>3.105428212</v>
+        <v>0.01123072382</v>
       </c>
       <c r="P66" s="4">
-        <v>168.1095718</v>
+        <v>187.2163225</v>
       </c>
       <c r="Q66" s="4">
         <v>34370.80952</v>
@@ -7383,25 +7383,25 @@
         <v>49</v>
       </c>
       <c r="C67" s="4">
-        <v>2417.98</v>
+        <v>2207.47</v>
       </c>
       <c r="D67" s="4">
         <v>24.0</v>
       </c>
       <c r="E67" s="4">
-        <v>2.81263147E8</v>
+        <v>6.589927014E8</v>
       </c>
       <c r="F67" s="4">
-        <v>7253959.42</v>
+        <v>6622217.59</v>
       </c>
       <c r="G67" s="4">
-        <v>14334.94</v>
+        <v>28173.89</v>
       </c>
       <c r="H67" s="4">
-        <v>130568.0</v>
+        <v>185017.0</v>
       </c>
       <c r="I67" s="4">
-        <v>781.0</v>
+        <v>996.0</v>
       </c>
       <c r="J67" s="4">
         <v>78001.0</v>
@@ -7410,19 +7410,19 @@
         <v>77.0</v>
       </c>
       <c r="L67" s="4">
-        <v>9288.04023</v>
+        <v>35.93622662</v>
       </c>
       <c r="M67" s="4">
-        <v>360132.0705</v>
+        <v>3576.09981</v>
       </c>
       <c r="N67" s="4">
-        <v>18.35459667</v>
+        <v>0.1528888597</v>
       </c>
       <c r="O67" s="4">
-        <v>3.096005122</v>
+        <v>0.01197909025</v>
       </c>
       <c r="P67" s="4">
-        <v>167.1805378</v>
+        <v>185.7600402</v>
       </c>
       <c r="Q67" s="4">
         <v>1013.0</v>
